--- a/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
+++ b/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joeg\Metier work\RCG_intersessional_work_2020\Metier_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joeg\Metier work\RCG_intersessional_work_2020\Metier_list_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Filter selection panels'!$A$1:$F$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Metier list suggestion'!$A$1:$G$1012</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Metier list suggestion'!$A$1:$G$1072</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3601" uniqueCount="1248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3721" uniqueCount="1308">
   <si>
     <t>RCG</t>
   </si>
@@ -5044,6 +5044,186 @@
   </si>
   <si>
     <t>SSC_DEF_&gt;=120_3_120</t>
+  </si>
+  <si>
+    <t>OTB_DEF_100-119_1_180</t>
+  </si>
+  <si>
+    <t>OTB_DEF_100-119_1_270</t>
+  </si>
+  <si>
+    <t>OTB_DEF_90-99_1_180</t>
+  </si>
+  <si>
+    <t>OTB_DEF_90-99_1_270</t>
+  </si>
+  <si>
+    <t>OTB_MCD_90-99_1_180</t>
+  </si>
+  <si>
+    <t>OTB_MCD_90-99_1_270</t>
+  </si>
+  <si>
+    <t>OTB_MCD_100-119_1_180</t>
+  </si>
+  <si>
+    <t>OTB_MCD_100-119_1_270</t>
+  </si>
+  <si>
+    <t>OTT_CRU_90-99_1_180</t>
+  </si>
+  <si>
+    <t>OTT_CRU_90-99_1_270</t>
+  </si>
+  <si>
+    <t>OTT_CRU_100-119_1_180</t>
+  </si>
+  <si>
+    <t>OTT_CRU_100-119_1_270</t>
+  </si>
+  <si>
+    <t>OTT_DEF_90-99_1_180</t>
+  </si>
+  <si>
+    <t>OTT_DEF_90-99_1_270</t>
+  </si>
+  <si>
+    <t>OTT_DEF_100-119_1_180</t>
+  </si>
+  <si>
+    <t>OTT_DEF_100-119_1_270</t>
+  </si>
+  <si>
+    <t>OTT_MCD_90-99_1_180</t>
+  </si>
+  <si>
+    <t>OTT_MCD_90-99_1_270</t>
+  </si>
+  <si>
+    <t>OTT_MCD_100-119_1_180</t>
+  </si>
+  <si>
+    <t>OTT_MCD_100-119_1_270</t>
+  </si>
+  <si>
+    <t>SDN_DEF_90-99_1_120</t>
+  </si>
+  <si>
+    <t>SDN_DEF_90-99_1_140</t>
+  </si>
+  <si>
+    <t>SDN_DEF_90-99_1_180</t>
+  </si>
+  <si>
+    <t>SDN_DEF_90-99_1_270</t>
+  </si>
+  <si>
+    <t>SDN_DEF_90-99_1_300</t>
+  </si>
+  <si>
+    <t>SDN_DEF_100-119_1_120</t>
+  </si>
+  <si>
+    <t>SDN_DEF_100-119_1_140</t>
+  </si>
+  <si>
+    <t>SDN_DEF_100-119_1_180</t>
+  </si>
+  <si>
+    <t>SDN_DEF_100-119_1_270</t>
+  </si>
+  <si>
+    <t>SDN_DEF_100-119_1_300</t>
+  </si>
+  <si>
+    <t>SSC_DEF_90-99_1_120</t>
+  </si>
+  <si>
+    <t>SSC_DEF_90-99_1_140</t>
+  </si>
+  <si>
+    <t>SSC_DEF_90-99_1_180</t>
+  </si>
+  <si>
+    <t>SSC_DEF_90-99_1_270</t>
+  </si>
+  <si>
+    <t>SSC_DEF_90-99_1_300</t>
+  </si>
+  <si>
+    <t>SSC_DEF_100-119_1_120</t>
+  </si>
+  <si>
+    <t>SSC_DEF_100-119_1_140</t>
+  </si>
+  <si>
+    <t>SSC_DEF_100-119_1_180</t>
+  </si>
+  <si>
+    <t>SSC_DEF_100-119_1_270</t>
+  </si>
+  <si>
+    <t>SSC_DEF_100-119_1_300</t>
+  </si>
+  <si>
+    <t>PTB_DEF_90-99_1_120</t>
+  </si>
+  <si>
+    <t>PTB_DEF_90-99_1_140</t>
+  </si>
+  <si>
+    <t>PTB_DEF_90-99_1_180</t>
+  </si>
+  <si>
+    <t>PTB_DEF_90-99_1_270</t>
+  </si>
+  <si>
+    <t>PTB_DEF_90-99_1_300</t>
+  </si>
+  <si>
+    <t>PTB_DEF_100-119_1_120</t>
+  </si>
+  <si>
+    <t>PTB_DEF_100-119_1_140</t>
+  </si>
+  <si>
+    <t>PTB_DEF_100-119_1_180</t>
+  </si>
+  <si>
+    <t>PTB_DEF_100-119_1_270</t>
+  </si>
+  <si>
+    <t>PTB_DEF_100-119_1_300</t>
+  </si>
+  <si>
+    <t>PTB_CRU_90-99_1_120</t>
+  </si>
+  <si>
+    <t>PTB_CRU_90-99_1_140</t>
+  </si>
+  <si>
+    <t>PTB_CRU_90-99_1_180</t>
+  </si>
+  <si>
+    <t>PTB_CRU_90-99_1_270</t>
+  </si>
+  <si>
+    <t>PTB_CRU_90-99_1_300</t>
+  </si>
+  <si>
+    <t>PTB_CRU_100-119_1_120</t>
+  </si>
+  <si>
+    <t>PTB_CRU_100-119_1_140</t>
+  </si>
+  <si>
+    <t>PTB_CRU_100-119_1_180</t>
+  </si>
+  <si>
+    <t>PTB_CRU_100-119_1_270</t>
+  </si>
+  <si>
+    <t>PTB_CRU_100-119_1_300</t>
   </si>
 </sst>
 </file>
@@ -6127,51 +6307,11 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -6452,10 +6592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1012"/>
+  <dimension ref="A1:G1072"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17240,169 +17380,150 @@
         <v>2</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E811" s="265" t="s">
-        <v>1133</v>
-      </c>
-      <c r="F811" s="263" t="s">
-        <v>547</v>
-      </c>
-      <c r="G811" s="66">
-        <v>32</v>
-      </c>
+        <v>1250</v>
+      </c>
+      <c r="E811" s="265"/>
+      <c r="F811" s="263"/>
+      <c r="G811" s="66"/>
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E812" s="263" t="s">
-        <v>817</v>
-      </c>
-      <c r="F812" s="263" t="s">
-        <v>816</v>
-      </c>
-      <c r="G812" s="66">
-        <v>22627</v>
-      </c>
+        <v>1251</v>
+      </c>
+      <c r="E812" s="265"/>
+      <c r="F812" s="263"/>
+      <c r="G812" s="66"/>
     </row>
     <row r="813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A813" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>1130</v>
-      </c>
-      <c r="E813" s="263"/>
-      <c r="F813" s="263"/>
-      <c r="G813" s="66"/>
+        <v>1129</v>
+      </c>
+      <c r="E813" s="265" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F813" s="263" t="s">
+        <v>547</v>
+      </c>
+      <c r="G813" s="66">
+        <v>32</v>
+      </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E814" s="263"/>
-      <c r="F814" s="263"/>
-      <c r="G814" s="66"/>
-    </row>
-    <row r="815" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="E814" s="263" t="s">
+        <v>817</v>
+      </c>
+      <c r="F814" s="263" t="s">
+        <v>816</v>
+      </c>
+      <c r="G814" s="66">
+        <v>22627</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C815" s="60"/>
-      <c r="D815" s="60"/>
+        <v>1130</v>
+      </c>
       <c r="E815" s="263"/>
       <c r="F815" s="263"/>
       <c r="G815" s="66"/>
     </row>
-    <row r="816" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A816" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B816" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E816" s="263"/>
+      <c r="F816" s="263"/>
+      <c r="G816" s="66"/>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A817" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E817" s="263"/>
+      <c r="F817" s="263"/>
+      <c r="G817" s="66"/>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A818" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E818" s="263"/>
+      <c r="F818" s="263"/>
+      <c r="G818" s="66"/>
+    </row>
+    <row r="819" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A819" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C819" s="60"/>
+      <c r="D819" s="60"/>
+      <c r="E819" s="263"/>
+      <c r="F819" s="263"/>
+      <c r="G819" s="66"/>
+    </row>
+    <row r="820" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A820" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B820" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C816" s="60"/>
-      <c r="D816" s="60"/>
-      <c r="E816" s="265" t="s">
+      <c r="C820" s="60"/>
+      <c r="D820" s="60"/>
+      <c r="E820" s="265" t="s">
         <v>818</v>
       </c>
-      <c r="F816" s="263" t="s">
+      <c r="F820" s="263" t="s">
         <v>536</v>
       </c>
-      <c r="G816" s="66">
+      <c r="G820" s="66">
         <v>94589</v>
       </c>
     </row>
-    <row r="817" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A817" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B817" s="3" t="s">
+    <row r="821" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A821" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B821" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C817" s="59"/>
-      <c r="D817" s="59"/>
-      <c r="E817" s="265" t="s">
+      <c r="C821" s="59"/>
+      <c r="D821" s="59"/>
+      <c r="E821" s="265" t="s">
         <v>537</v>
       </c>
-      <c r="F817" s="263" t="s">
+      <c r="F821" s="263" t="s">
         <v>538</v>
       </c>
-      <c r="G817" s="66">
+      <c r="G821" s="66">
         <v>2698</v>
-      </c>
-    </row>
-    <row r="818" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A818" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B818" s="4" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="819" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A819" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B819" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E819" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="F819" t="s">
-        <v>468</v>
-      </c>
-      <c r="G819" s="64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="820" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A820" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B820" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C820" s="107"/>
-      <c r="D820" s="107"/>
-      <c r="E820" s="49" t="s">
-        <v>842</v>
-      </c>
-      <c r="F820" t="s">
-        <v>750</v>
-      </c>
-      <c r="G820" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="821" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A821" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B821" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C821" s="107"/>
-      <c r="D821" s="107"/>
-      <c r="E821" t="s">
-        <v>843</v>
-      </c>
-      <c r="F821" t="s">
-        <v>844</v>
-      </c>
-      <c r="G821" s="64">
-        <v>202</v>
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.25">
@@ -17410,16 +17531,7 @@
         <v>2</v>
       </c>
       <c r="B822" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E822" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="F822" t="s">
-        <v>543</v>
-      </c>
-      <c r="G822" s="64">
-        <v>95</v>
+        <v>841</v>
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.25">
@@ -17427,132 +17539,130 @@
         <v>2</v>
       </c>
       <c r="B823" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
+      </c>
+      <c r="E823" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="F823" t="s">
+        <v>468</v>
+      </c>
+      <c r="G823" s="64">
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B824" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="E824" s="50" t="s">
-        <v>287</v>
+      <c r="B824" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C824" s="107"/>
+      <c r="D824" s="107"/>
+      <c r="E824" s="49" t="s">
+        <v>842</v>
       </c>
       <c r="F824" t="s">
-        <v>519</v>
+        <v>750</v>
       </c>
       <c r="G824" s="64">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B825" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E825" s="49" t="s">
-        <v>291</v>
+      <c r="B825" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C825" s="107"/>
+      <c r="D825" s="107"/>
+      <c r="E825" t="s">
+        <v>843</v>
       </c>
       <c r="F825" t="s">
-        <v>546</v>
+        <v>844</v>
       </c>
       <c r="G825" s="64">
-        <v>10767</v>
+        <v>202</v>
       </c>
     </row>
     <row r="826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A826" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B826" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E826" s="49" t="s">
-        <v>1141</v>
+      <c r="B826" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E826" s="50" t="s">
+        <v>284</v>
       </c>
       <c r="F826" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G826" s="64">
-        <v>1300</v>
+        <v>95</v>
       </c>
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B827" s="5" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E827" s="49" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F827" t="s">
+      <c r="B827" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A828" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B828" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E828" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="F828" t="s">
+        <v>519</v>
+      </c>
+      <c r="G828" s="64">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A829" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B829" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E829" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="F829" t="s">
+        <v>546</v>
+      </c>
+      <c r="G829" s="64">
+        <v>10767</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A830" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B830" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E830" s="49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F830" t="s">
         <v>547</v>
       </c>
-      <c r="G827" s="64">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="828" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A828" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B828" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C828" s="60"/>
-      <c r="D828" s="60"/>
-      <c r="E828" s="49" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F828" t="s">
-        <v>547</v>
-      </c>
-      <c r="G828" s="64">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="829" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A829" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B829" s="5" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C829" s="60"/>
-      <c r="D829" s="60"/>
-      <c r="E829" s="49" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F829" t="s">
-        <v>547</v>
-      </c>
-      <c r="G829" s="64">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="830" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A830" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B830" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C830" s="60"/>
-      <c r="D830" s="60"/>
-      <c r="E830" t="s">
-        <v>75</v>
-      </c>
-      <c r="F830" t="s">
-        <v>519</v>
-      </c>
       <c r="G830" s="64">
-        <v>28</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="831" spans="1:7" x14ac:dyDescent="0.25">
@@ -17560,431 +17670,403 @@
         <v>2</v>
       </c>
       <c r="B831" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="832" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1174</v>
+      </c>
+      <c r="E831" s="49" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F831" t="s">
+        <v>547</v>
+      </c>
+      <c r="G831" s="64">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B832" s="5" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="833" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1175</v>
+      </c>
+      <c r="C832" s="60"/>
+      <c r="D832" s="60"/>
+      <c r="E832" s="49" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F832" t="s">
+        <v>547</v>
+      </c>
+      <c r="G832" s="64">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A833" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B833" s="5" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="834" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+      <c r="C833" s="60"/>
+      <c r="D833" s="60"/>
+      <c r="E833" s="49"/>
+      <c r="F833"/>
+      <c r="G833" s="64"/>
+    </row>
+    <row r="834" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A834" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B834" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E834" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="F834" t="s">
-        <v>545</v>
-      </c>
-      <c r="G834" s="64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="835" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1253</v>
+      </c>
+      <c r="C834" s="60"/>
+      <c r="D834" s="60"/>
+      <c r="E834" s="49"/>
+      <c r="F834"/>
+      <c r="G834" s="64"/>
+    </row>
+    <row r="835" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A835" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B835" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="836" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1176</v>
+      </c>
+      <c r="C835" s="60"/>
+      <c r="D835" s="60"/>
+      <c r="E835" s="49" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F835" t="s">
+        <v>547</v>
+      </c>
+      <c r="G835" s="64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A836" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B836" s="8" t="s">
-        <v>309</v>
-      </c>
+      <c r="B836" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C836" s="60"/>
+      <c r="D836" s="60"/>
       <c r="E836" t="s">
-        <v>309</v>
+        <v>75</v>
       </c>
       <c r="F836" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G836" s="64">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A837" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B837" s="8" t="s">
-        <v>84</v>
+      <c r="B837" s="5" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B838" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="E838" s="50" t="s">
-        <v>549</v>
-      </c>
-      <c r="F838" t="s">
-        <v>550</v>
-      </c>
-      <c r="G838" s="64">
-        <v>8542</v>
+      <c r="B838" s="5" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B839" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E839" t="s">
-        <v>803</v>
-      </c>
-      <c r="F839" t="s">
-        <v>551</v>
-      </c>
-      <c r="G839" s="64">
-        <v>11242</v>
-      </c>
-    </row>
-    <row r="840" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B839" s="5" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B840" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C840" s="107"/>
-      <c r="D840" s="107"/>
-      <c r="E840"/>
-      <c r="F840"/>
-      <c r="G840" s="64"/>
-    </row>
-    <row r="841" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B840" s="5" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B841" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C841" s="107"/>
-      <c r="D841" s="107"/>
-      <c r="E841" t="s">
-        <v>88</v>
-      </c>
-      <c r="F841" t="s">
-        <v>548</v>
-      </c>
-      <c r="G841" s="64">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="842" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B841" s="5" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A842" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B842" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C842" s="60"/>
-      <c r="D842" s="60"/>
+      <c r="B842" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="E842" s="50" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="F842" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
       <c r="G842" s="64">
-        <v>342</v>
+        <v>10</v>
       </c>
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B843" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E843" s="49"/>
+      <c r="B843" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B844" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E844" s="50" t="s">
-        <v>320</v>
+      <c r="B844" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E844" t="s">
+        <v>309</v>
       </c>
       <c r="F844" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="G844" s="64">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B845" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E845" t="s">
-        <v>95</v>
-      </c>
-      <c r="F845" t="s">
-        <v>553</v>
-      </c>
-      <c r="G845" s="64">
-        <v>1824</v>
+      <c r="B845" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B846" s="2" t="s">
-        <v>554</v>
+      <c r="B846" s="8" t="s">
+        <v>549</v>
       </c>
       <c r="E846" s="50" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F846" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G846" s="64">
-        <v>3012</v>
+        <v>8542</v>
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B847" s="2" t="s">
-        <v>97</v>
+      <c r="B847" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="E847" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F847" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G847" s="64">
-        <v>4900</v>
-      </c>
-    </row>
-    <row r="848" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11242</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A848" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B848" s="2" t="s">
-        <v>98</v>
+      <c r="B848" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C848" s="107"/>
       <c r="D848" s="107"/>
-      <c r="E848" s="49" t="s">
-        <v>556</v>
-      </c>
-      <c r="F848" t="s">
-        <v>456</v>
-      </c>
-      <c r="G848" s="64">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="849" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E848"/>
+      <c r="F848"/>
+      <c r="G848" s="64"/>
+    </row>
+    <row r="849" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A849" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B849" s="2" t="s">
-        <v>99</v>
+      <c r="B849" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C849" s="107"/>
       <c r="D849" s="107"/>
       <c r="E849" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F849" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="G849" s="64">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="850" spans="1:7" x14ac:dyDescent="0.25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A850" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B850" s="2" t="s">
-        <v>325</v>
-      </c>
+      <c r="B850" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C850" s="60"/>
+      <c r="D850" s="60"/>
       <c r="E850" s="50" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F850" t="s">
-        <v>552</v>
+        <v>479</v>
       </c>
       <c r="G850" s="64">
-        <v>55</v>
+        <v>342</v>
       </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B851" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E851" s="49" t="s">
-        <v>845</v>
-      </c>
-      <c r="F851" t="s">
-        <v>461</v>
-      </c>
-      <c r="G851" s="64">
-        <v>118</v>
-      </c>
+      <c r="B851" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E851" s="49"/>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B852" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E852" t="s">
-        <v>101</v>
+      <c r="B852" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E852" s="50" t="s">
+        <v>320</v>
       </c>
       <c r="F852" t="s">
-        <v>557</v>
+        <v>461</v>
       </c>
       <c r="G852" s="64">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="853" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B853" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C853" s="60"/>
-      <c r="D853" s="60"/>
+      <c r="B853" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E853" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F853" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="G853" s="64">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="854" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B854" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="C854" s="60"/>
-      <c r="D854" s="60"/>
+      <c r="B854" s="2" t="s">
+        <v>554</v>
+      </c>
       <c r="E854" s="50" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="F854" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G854" s="64">
-        <v>684</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B855" s="3" t="s">
-        <v>104</v>
+      <c r="B855" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E855" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F855" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="G855" s="64">
-        <v>107</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B856" s="3" t="s">
-        <v>105</v>
+      <c r="B856" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="C856" s="107"/>
       <c r="D856" s="107"/>
       <c r="E856" s="49" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F856" t="s">
-        <v>564</v>
+        <v>456</v>
       </c>
       <c r="G856" s="64">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B857" s="3" t="s">
-        <v>106</v>
+      <c r="B857" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="C857" s="107"/>
       <c r="D857" s="107"/>
       <c r="E857" t="s">
-        <v>847</v>
+        <v>99</v>
       </c>
       <c r="F857" t="s">
-        <v>560</v>
+        <v>474</v>
       </c>
       <c r="G857" s="64">
-        <v>859</v>
+        <v>68</v>
       </c>
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B858" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E858" s="49" t="s">
-        <v>846</v>
+      <c r="B858" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E858" s="50" t="s">
+        <v>325</v>
       </c>
       <c r="F858" t="s">
-        <v>848</v>
+        <v>552</v>
       </c>
       <c r="G858" s="64">
         <v>55</v>
@@ -17994,354 +18076,364 @@
       <c r="A859" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B859" s="3" t="s">
-        <v>107</v>
+      <c r="B859" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E859" s="49" t="s">
-        <v>559</v>
+        <v>845</v>
       </c>
       <c r="F859" t="s">
         <v>461</v>
       </c>
       <c r="G859" s="64">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A860" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B860" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="861" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B860" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E860" t="s">
+        <v>101</v>
+      </c>
+      <c r="F860" t="s">
+        <v>557</v>
+      </c>
+      <c r="G860" s="64">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A861" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B861" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="862" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B861" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C861" s="60"/>
+      <c r="D861" s="60"/>
+      <c r="E861" t="s">
+        <v>102</v>
+      </c>
+      <c r="F861" t="s">
+        <v>561</v>
+      </c>
+      <c r="G861" s="64">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A862" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B862" s="4" t="s">
-        <v>110</v>
+      <c r="B862" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C862" s="60"/>
+      <c r="D862" s="60"/>
+      <c r="E862" s="50" t="s">
+        <v>562</v>
+      </c>
+      <c r="F862" t="s">
+        <v>552</v>
+      </c>
+      <c r="G862" s="64">
+        <v>684</v>
       </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A863" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B863" s="4" t="s">
+      <c r="B863" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E863" t="s">
+        <v>805</v>
+      </c>
+      <c r="F863" t="s">
+        <v>474</v>
+      </c>
+      <c r="G863" s="64">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A864" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C864" s="107"/>
+      <c r="D864" s="107"/>
+      <c r="E864" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="F864" t="s">
+        <v>564</v>
+      </c>
+      <c r="G864" s="64">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A865" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C865" s="107"/>
+      <c r="D865" s="107"/>
+      <c r="E865" t="s">
+        <v>847</v>
+      </c>
+      <c r="F865" t="s">
+        <v>560</v>
+      </c>
+      <c r="G865" s="64">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A866" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E866" s="49" t="s">
+        <v>846</v>
+      </c>
+      <c r="F866" t="s">
+        <v>848</v>
+      </c>
+      <c r="G866" s="64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A867" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E867" s="49" t="s">
+        <v>559</v>
+      </c>
+      <c r="F867" t="s">
+        <v>461</v>
+      </c>
+      <c r="G867" s="64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A868" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B868" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A869" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B869" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A870" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B870" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A871" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B871" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="864" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A864" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B864" s="4" t="s">
+    <row r="872" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A872" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B872" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C864" s="60"/>
-      <c r="D864" s="60"/>
-      <c r="E864" s="49" t="s">
+      <c r="C872" s="60"/>
+      <c r="D872" s="60"/>
+      <c r="E872" s="49" t="s">
         <v>565</v>
       </c>
-      <c r="F864" t="s">
+      <c r="F872" t="s">
         <v>566</v>
       </c>
-      <c r="G864" s="64">
+      <c r="G872" s="64">
         <v>4</v>
       </c>
     </row>
-    <row r="865" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A865" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B865" s="5" t="s">
+    <row r="873" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A873" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B873" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="C865" s="59"/>
-      <c r="D865" s="59"/>
-      <c r="E865" s="264" t="s">
-        <v>406</v>
-      </c>
-      <c r="F865" s="56" t="s">
-        <v>479</v>
-      </c>
-      <c r="G865" s="66">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="866" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A866" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B866" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C866" s="59"/>
-      <c r="D866" s="59"/>
-      <c r="E866" s="263" t="s">
-        <v>112</v>
-      </c>
-      <c r="F866" s="263" t="s">
-        <v>569</v>
-      </c>
-      <c r="G866" s="66">
-        <v>9021</v>
-      </c>
-    </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A867" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B867" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="C867" s="59"/>
-      <c r="D867" s="59"/>
-      <c r="E867" s="58" t="s">
-        <v>823</v>
-      </c>
-      <c r="F867" s="263" t="s">
-        <v>571</v>
-      </c>
-      <c r="G867" s="66">
-        <v>17179</v>
-      </c>
-    </row>
-    <row r="868" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A868" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B868" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C868" s="59"/>
-      <c r="D868" s="59"/>
-      <c r="E868" s="263" t="s">
-        <v>807</v>
-      </c>
-      <c r="F868" s="263" t="s">
-        <v>572</v>
-      </c>
-      <c r="G868" s="66">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="869" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A869" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B869" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C869" s="107"/>
-      <c r="D869" s="107"/>
-      <c r="E869" s="265" t="s">
-        <v>573</v>
-      </c>
-      <c r="F869" s="263" t="s">
-        <v>574</v>
-      </c>
-      <c r="G869" s="66">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="870" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A870" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B870" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C870" s="107"/>
-      <c r="D870" s="107"/>
-      <c r="E870" s="263" t="s">
-        <v>808</v>
-      </c>
-      <c r="F870" s="263" t="s">
-        <v>568</v>
-      </c>
-      <c r="G870" s="66">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="871" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A871" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B871" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="C871" s="59"/>
-      <c r="D871" s="59"/>
-      <c r="E871" s="264" t="s">
-        <v>411</v>
-      </c>
-      <c r="F871" s="263" t="s">
-        <v>567</v>
-      </c>
-      <c r="G871" s="66">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A872" s="59" t="s">
-        <v>2</v>
-      </c>
-      <c r="B872" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C872" s="59"/>
-      <c r="D872" s="59"/>
-      <c r="E872" s="265" t="s">
-        <v>824</v>
-      </c>
-      <c r="F872" s="263" t="s">
-        <v>825</v>
-      </c>
-      <c r="G872" s="66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="873" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A873" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B873" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="C873" s="59"/>
       <c r="D873" s="59"/>
-      <c r="E873" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="F873" s="59" t="s">
-        <v>520</v>
+      <c r="E873" s="264" t="s">
+        <v>406</v>
+      </c>
+      <c r="F873" s="56" t="s">
+        <v>479</v>
       </c>
       <c r="G873" s="66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="874" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A874" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B874" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F874" t="s">
-        <v>852</v>
-      </c>
-      <c r="G874" s="64">
-        <v>79</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A874" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B874" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C874" s="59"/>
+      <c r="D874" s="59"/>
+      <c r="E874" s="263" t="s">
+        <v>112</v>
+      </c>
+      <c r="F874" s="263" t="s">
+        <v>569</v>
+      </c>
+      <c r="G874" s="66">
+        <v>9021</v>
       </c>
     </row>
     <row r="875" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A875" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B875" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="F875" t="s">
-        <v>853</v>
-      </c>
-      <c r="G875" s="64">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="876" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A876" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B876" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="C876" s="60"/>
-      <c r="D876" s="60"/>
-      <c r="E876"/>
-      <c r="F876" t="s">
-        <v>547</v>
-      </c>
-      <c r="G876" s="64">
-        <v>2907</v>
-      </c>
-    </row>
-    <row r="877" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A877" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B877" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C877" s="60"/>
-      <c r="D877" s="60"/>
-      <c r="E877" t="s">
-        <v>855</v>
-      </c>
-      <c r="F877" t="s">
-        <v>856</v>
-      </c>
-      <c r="G877" s="64">
-        <v>7008</v>
+      <c r="A875" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B875" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C875" s="59"/>
+      <c r="D875" s="59"/>
+      <c r="E875" s="58" t="s">
+        <v>823</v>
+      </c>
+      <c r="F875" s="263" t="s">
+        <v>571</v>
+      </c>
+      <c r="G875" s="66">
+        <v>17179</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A876" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B876" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C876" s="59"/>
+      <c r="D876" s="59"/>
+      <c r="E876" s="263" t="s">
+        <v>807</v>
+      </c>
+      <c r="F876" s="263" t="s">
+        <v>572</v>
+      </c>
+      <c r="G876" s="66">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A877" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B877" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C877" s="107"/>
+      <c r="D877" s="107"/>
+      <c r="E877" s="265" t="s">
+        <v>573</v>
+      </c>
+      <c r="F877" s="263" t="s">
+        <v>574</v>
+      </c>
+      <c r="G877" s="66">
+        <v>25</v>
       </c>
     </row>
     <row r="878" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A878" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B878" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="E878" t="s">
-        <v>854</v>
-      </c>
-      <c r="F878" t="s">
-        <v>547</v>
-      </c>
-      <c r="G878" s="64">
-        <v>17733</v>
+      <c r="A878" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B878" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C878" s="107"/>
+      <c r="D878" s="107"/>
+      <c r="E878" s="263" t="s">
+        <v>808</v>
+      </c>
+      <c r="F878" s="263" t="s">
+        <v>568</v>
+      </c>
+      <c r="G878" s="66">
+        <v>57</v>
       </c>
     </row>
     <row r="879" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A879" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B879" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E879" s="49" t="s">
-        <v>1152</v>
-      </c>
-      <c r="F879" t="s">
-        <v>547</v>
-      </c>
-      <c r="G879" s="64">
-        <v>1668</v>
+      <c r="A879" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B879" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C879" s="59"/>
+      <c r="D879" s="59"/>
+      <c r="E879" s="264" t="s">
+        <v>411</v>
+      </c>
+      <c r="F879" s="263" t="s">
+        <v>567</v>
+      </c>
+      <c r="G879" s="66">
+        <v>52</v>
       </c>
     </row>
     <row r="880" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A880" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="B880" s="6" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E880" s="49" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F880" t="s">
-        <v>547</v>
-      </c>
-      <c r="G880" s="64">
-        <v>1532</v>
+      <c r="A880" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B880" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C880" s="59"/>
+      <c r="D880" s="59"/>
+      <c r="E880" s="265" t="s">
+        <v>824</v>
+      </c>
+      <c r="F880" s="263" t="s">
+        <v>825</v>
+      </c>
+      <c r="G880" s="66">
+        <v>6</v>
       </c>
     </row>
     <row r="881" spans="1:7" x14ac:dyDescent="0.25">
@@ -18349,16 +18441,18 @@
         <v>2</v>
       </c>
       <c r="B881" s="6" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E881" s="49" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F881" t="s">
-        <v>547</v>
-      </c>
-      <c r="G881" s="64">
-        <v>48</v>
+        <v>326</v>
+      </c>
+      <c r="C881" s="59"/>
+      <c r="D881" s="59"/>
+      <c r="E881" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="F881" s="59" t="s">
+        <v>520</v>
+      </c>
+      <c r="G881" s="66">
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:7" x14ac:dyDescent="0.25">
@@ -18366,16 +18460,13 @@
         <v>2</v>
       </c>
       <c r="B882" s="6" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E882" s="49" t="s">
-        <v>1151</v>
+        <v>119</v>
       </c>
       <c r="F882" t="s">
-        <v>547</v>
+        <v>852</v>
       </c>
       <c r="G882" s="64">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.25">
@@ -18383,34 +18474,49 @@
         <v>2</v>
       </c>
       <c r="B883" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C883" s="107"/>
-      <c r="D883" s="107"/>
-      <c r="E883" t="s">
-        <v>123</v>
+        <v>849</v>
       </c>
       <c r="F883" t="s">
-        <v>550</v>
+        <v>853</v>
       </c>
       <c r="G883" s="64">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="884" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A884" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B884" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="885" spans="1:7" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+      <c r="C884" s="60"/>
+      <c r="D884" s="60"/>
+      <c r="E884"/>
+      <c r="F884" t="s">
+        <v>547</v>
+      </c>
+      <c r="G884" s="64">
+        <v>2907</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A885" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B885" s="6" t="s">
-        <v>1147</v>
+        <v>121</v>
+      </c>
+      <c r="C885" s="60"/>
+      <c r="D885" s="60"/>
+      <c r="E885" t="s">
+        <v>855</v>
+      </c>
+      <c r="F885" t="s">
+        <v>856</v>
+      </c>
+      <c r="G885" s="64">
+        <v>7008</v>
       </c>
     </row>
     <row r="886" spans="1:7" x14ac:dyDescent="0.25">
@@ -18418,249 +18524,216 @@
         <v>2</v>
       </c>
       <c r="B886" s="6" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="887" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="E886" t="s">
+        <v>854</v>
+      </c>
+      <c r="F886" t="s">
+        <v>547</v>
+      </c>
+      <c r="G886" s="64">
+        <v>17733</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A887" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B887" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="C887" s="60"/>
-      <c r="D887" s="60"/>
-      <c r="E887" s="50" t="s">
-        <v>576</v>
+        <v>122</v>
+      </c>
+      <c r="E887" s="49" t="s">
+        <v>1152</v>
       </c>
       <c r="F887" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="G887" s="64">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="888" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A888" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B888" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C888" s="60"/>
-      <c r="D888" s="60"/>
+        <v>1144</v>
+      </c>
       <c r="E888" s="49" t="s">
-        <v>851</v>
+        <v>1149</v>
       </c>
       <c r="F888" t="s">
-        <v>461</v>
+        <v>547</v>
       </c>
       <c r="G888" s="64">
-        <v>69</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A889" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B889" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E889" t="s">
-        <v>126</v>
+      <c r="B889" s="6" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E889" s="49" t="s">
+        <v>1150</v>
       </c>
       <c r="F889" t="s">
-        <v>479</v>
+        <v>547</v>
       </c>
       <c r="G889" s="64">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A890" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B890" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E890" t="s">
-        <v>127</v>
-      </c>
-      <c r="F890" t="s">
-        <v>858</v>
-      </c>
-      <c r="G890" s="64">
-        <v>1</v>
-      </c>
+      <c r="B890" s="6" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E890" s="49"/>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A891" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B891" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="E891" t="s">
-        <v>857</v>
-      </c>
-      <c r="F891" t="s">
-        <v>461</v>
-      </c>
-      <c r="G891" s="64">
-        <v>3</v>
-      </c>
+      <c r="B891" s="6" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E891" s="49"/>
     </row>
     <row r="892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A892" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B892" s="7" t="s">
-        <v>129</v>
+      <c r="B892" s="6" t="s">
+        <v>1146</v>
       </c>
       <c r="E892" s="49" t="s">
-        <v>859</v>
+        <v>1151</v>
       </c>
       <c r="F892" t="s">
-        <v>860</v>
+        <v>547</v>
       </c>
       <c r="G892" s="64">
-        <v>9492</v>
+        <v>61</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A893" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B893" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E893" s="49" t="s">
-        <v>1162</v>
+      <c r="B893" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C893" s="107"/>
+      <c r="D893" s="107"/>
+      <c r="E893" t="s">
+        <v>123</v>
       </c>
       <c r="F893" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G893" s="64">
-        <v>1358</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A894" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B894" s="7" t="s">
-        <v>1153</v>
-      </c>
-      <c r="E894" s="49" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F894" t="s">
-        <v>547</v>
-      </c>
-      <c r="G894" s="64">
-        <v>2418</v>
+      <c r="B894" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A895" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B895" s="7" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E895" s="49" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F895" t="s">
-        <v>547</v>
-      </c>
-      <c r="G895" s="64">
-        <v>314</v>
+      <c r="B895" s="6" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A896" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B896" s="7" t="s">
-        <v>1155</v>
-      </c>
-      <c r="E896" s="49" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F896" t="s">
-        <v>547</v>
-      </c>
-      <c r="G896" s="64">
-        <v>87</v>
+      <c r="B896" s="6" t="s">
+        <v>1258</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A897" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B897" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E897" t="s">
-        <v>131</v>
-      </c>
-      <c r="F897" t="s">
-        <v>860</v>
-      </c>
-      <c r="G897" s="64">
-        <v>994</v>
+      <c r="B897" s="6" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B898" s="7" t="s">
-        <v>1156</v>
+      <c r="B898" s="6" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="899" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A899" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B899" s="7" t="s">
-        <v>1157</v>
+      <c r="B899" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="C899" s="60"/>
       <c r="D899" s="60"/>
-      <c r="E899"/>
-      <c r="F899"/>
-      <c r="G899" s="64"/>
+      <c r="E899" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="F899" t="s">
+        <v>575</v>
+      </c>
+      <c r="G899" s="64">
+        <v>69</v>
+      </c>
     </row>
     <row r="900" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A900" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B900" s="7" t="s">
-        <v>1158</v>
+      <c r="B900" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C900" s="60"/>
       <c r="D900" s="60"/>
-      <c r="E900"/>
-      <c r="F900"/>
-      <c r="G900" s="64"/>
+      <c r="E900" s="49" t="s">
+        <v>851</v>
+      </c>
+      <c r="F900" t="s">
+        <v>461</v>
+      </c>
+      <c r="G900" s="64">
+        <v>69</v>
+      </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A901" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B901" s="7" t="s">
-        <v>336</v>
+        <v>126</v>
       </c>
       <c r="E901" t="s">
-        <v>861</v>
+        <v>126</v>
       </c>
       <c r="F901" t="s">
-        <v>862</v>
+        <v>479</v>
       </c>
       <c r="G901" s="64">
-        <v>5207</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:7" x14ac:dyDescent="0.25">
@@ -18668,1239 +18741,1117 @@
         <v>2</v>
       </c>
       <c r="B902" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="E902" t="s">
+        <v>127</v>
+      </c>
+      <c r="F902" t="s">
+        <v>858</v>
+      </c>
+      <c r="G902" s="64">
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B903" s="1" t="s">
-        <v>863</v>
+      <c r="B903" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="E903" t="s">
+        <v>857</v>
+      </c>
+      <c r="F903" t="s">
+        <v>461</v>
+      </c>
+      <c r="G903" s="64">
+        <v>3</v>
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B904" s="1" t="s">
-        <v>135</v>
+      <c r="B904" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E904" s="49" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F904" t="s">
-        <v>519</v>
+        <v>860</v>
       </c>
       <c r="G904" s="64">
-        <v>1756</v>
+        <v>9492</v>
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B905" s="1" t="s">
-        <v>136</v>
+      <c r="B905" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="E905" s="49" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="F905" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G905" s="64">
-        <v>2433</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A906" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B906" s="1" t="s">
-        <v>1163</v>
+      <c r="B906" s="7" t="s">
+        <v>1153</v>
       </c>
       <c r="E906" s="49" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="F906" t="s">
         <v>547</v>
       </c>
       <c r="G906" s="64">
-        <v>2913</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B907" s="1" t="s">
-        <v>1164</v>
+      <c r="B907" s="7" t="s">
+        <v>1154</v>
       </c>
       <c r="E907" s="49" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="F907" t="s">
         <v>547</v>
       </c>
       <c r="G907" s="64">
-        <v>195</v>
+        <v>314</v>
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B908" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E908" s="49" t="s">
-        <v>1171</v>
-      </c>
-      <c r="F908" t="s">
-        <v>547</v>
-      </c>
-      <c r="G908" s="64">
-        <v>83</v>
-      </c>
+      <c r="B908" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E908" s="49"/>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B909" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E909" t="s">
-        <v>137</v>
-      </c>
-      <c r="F909" t="s">
-        <v>519</v>
-      </c>
-      <c r="G909" s="64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="910" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B909" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E909" s="49"/>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B910" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C910" s="60"/>
-      <c r="D910" s="60"/>
-      <c r="E910"/>
-      <c r="F910"/>
-      <c r="G910" s="64"/>
-    </row>
-    <row r="911" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B910" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E910" s="49" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F910" t="s">
+        <v>547</v>
+      </c>
+      <c r="G910" s="64">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A911" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B911" s="1" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C911" s="60"/>
-      <c r="D911" s="60"/>
-      <c r="E911"/>
-      <c r="F911"/>
-      <c r="G911" s="64"/>
+      <c r="B911" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E911" t="s">
+        <v>131</v>
+      </c>
+      <c r="F911" t="s">
+        <v>860</v>
+      </c>
+      <c r="G911" s="64">
+        <v>994</v>
+      </c>
     </row>
     <row r="912" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A912" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B912" s="1" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B912" s="7" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A913" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B913" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="E913" t="s">
-        <v>864</v>
-      </c>
-      <c r="F913" t="s">
-        <v>545</v>
-      </c>
-      <c r="G913" s="64">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B913" s="7" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C913" s="60"/>
+      <c r="D913" s="60"/>
+      <c r="E913"/>
+      <c r="F913"/>
+      <c r="G913" s="64"/>
+    </row>
+    <row r="914" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A914" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B914" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E914" s="49" t="s">
-        <v>866</v>
-      </c>
-      <c r="F914" t="s">
-        <v>519</v>
-      </c>
-      <c r="G914" s="64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B914" s="7" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C914" s="60"/>
+      <c r="D914" s="60"/>
+      <c r="E914"/>
+      <c r="F914"/>
+      <c r="G914" s="64"/>
+    </row>
+    <row r="915" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A915" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B915" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B915" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C915" s="60"/>
+      <c r="D915" s="60"/>
+      <c r="E915"/>
+      <c r="F915"/>
+      <c r="G915" s="64"/>
+    </row>
+    <row r="916" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A916" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B916" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="E916" t="s">
-        <v>867</v>
-      </c>
-      <c r="F916" t="s">
-        <v>520</v>
-      </c>
-      <c r="G916" s="64">
-        <v>118</v>
-      </c>
+      <c r="B916" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C916" s="60"/>
+      <c r="D916" s="60"/>
+      <c r="E916"/>
+      <c r="F916"/>
+      <c r="G916" s="64"/>
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B917" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E917" s="49" t="s">
-        <v>349</v>
+      <c r="B917" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E917" t="s">
+        <v>861</v>
       </c>
       <c r="F917" t="s">
-        <v>479</v>
+        <v>862</v>
       </c>
       <c r="G917" s="64">
-        <v>52</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="918" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A918" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B918" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C918" s="107"/>
-      <c r="D918" s="107"/>
+      <c r="B918" s="7" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B919" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C919" s="107"/>
-      <c r="D919" s="107"/>
-      <c r="E919" t="s">
-        <v>143</v>
-      </c>
-      <c r="F919" t="s">
-        <v>520</v>
-      </c>
-      <c r="G919" s="64">
-        <v>11</v>
+      <c r="B919" s="1" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="920" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A920" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B920" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="E920" t="s">
-        <v>350</v>
+      <c r="B920" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E920" s="49" t="s">
+        <v>865</v>
       </c>
       <c r="F920" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G920" s="64">
-        <v>4</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="921" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A921" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B921" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="922" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B921" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E921" s="49" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F921" t="s">
+        <v>547</v>
+      </c>
+      <c r="G921" s="64">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A922" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B922" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C922" s="60"/>
-      <c r="D922" s="60"/>
-      <c r="E922" t="s">
-        <v>146</v>
+      <c r="B922" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E922" s="49" t="s">
+        <v>1169</v>
       </c>
       <c r="F922" t="s">
-        <v>869</v>
+        <v>547</v>
       </c>
       <c r="G922" s="64">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="923" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A923" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B923" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="C923" s="60"/>
-      <c r="D923" s="60"/>
-      <c r="E923" t="s">
-        <v>868</v>
+      <c r="B923" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E923" s="49" t="s">
+        <v>1170</v>
       </c>
       <c r="F923" t="s">
-        <v>869</v>
+        <v>547</v>
       </c>
       <c r="G923" s="64">
-        <v>625</v>
+        <v>195</v>
       </c>
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B924" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E924" s="49" t="s">
-        <v>870</v>
-      </c>
-      <c r="F924" t="s">
-        <v>519</v>
-      </c>
-      <c r="G924" s="64">
-        <v>657</v>
-      </c>
+      <c r="B924" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E924" s="49"/>
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B925" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="B925" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E925" s="49"/>
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B926" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E926" t="s">
-        <v>150</v>
+      <c r="B926" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E926" s="49" t="s">
+        <v>1171</v>
       </c>
       <c r="F926" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="G926" s="64">
-        <v>898</v>
+        <v>83</v>
       </c>
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B927" s="5" t="s">
-        <v>809</v>
+      <c r="B927" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="E927" t="s">
-        <v>809</v>
+        <v>137</v>
       </c>
       <c r="F927" t="s">
         <v>519</v>
       </c>
       <c r="G927" s="64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A928" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B928" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E928" t="s">
-        <v>871</v>
-      </c>
-      <c r="F928" t="s">
-        <v>872</v>
-      </c>
-      <c r="G928" s="64">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="929" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B928" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C928" s="60"/>
+      <c r="D928" s="60"/>
+      <c r="E928"/>
+      <c r="F928"/>
+      <c r="G928" s="64"/>
+    </row>
+    <row r="929" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A929" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B929" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E929" t="s">
-        <v>152</v>
-      </c>
-      <c r="F929" t="s">
-        <v>874</v>
-      </c>
-      <c r="G929" s="64">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="930" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B929" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C929" s="60"/>
+      <c r="D929" s="60"/>
+      <c r="E929"/>
+      <c r="F929"/>
+      <c r="G929" s="64"/>
+    </row>
+    <row r="930" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A930" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B930" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="C930" s="107"/>
-      <c r="D930" s="107"/>
-      <c r="E930" t="s">
-        <v>873</v>
-      </c>
-      <c r="F930" t="s">
-        <v>520</v>
-      </c>
-      <c r="G930" s="64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="931" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B930" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C930" s="60"/>
+      <c r="D930" s="60"/>
+      <c r="E930"/>
+      <c r="F930"/>
+      <c r="G930" s="64"/>
+    </row>
+    <row r="931" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A931" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B931" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="E931" s="49" t="s">
-        <v>355</v>
-      </c>
-      <c r="F931" t="s">
-        <v>875</v>
-      </c>
-      <c r="G931" s="64">
-        <v>21</v>
-      </c>
+      <c r="B931" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C931" s="60"/>
+      <c r="D931" s="60"/>
+      <c r="E931"/>
+      <c r="F931"/>
+      <c r="G931" s="64"/>
     </row>
     <row r="932" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A932" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B932" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C932" s="107"/>
-      <c r="D932" s="107"/>
-      <c r="E932" s="49" t="s">
-        <v>876</v>
-      </c>
-      <c r="F932" t="s">
-        <v>456</v>
-      </c>
-      <c r="G932" s="64">
-        <v>106</v>
+      <c r="B932" s="1" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="933" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A933" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B933" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="C933" s="107"/>
-      <c r="D933" s="107"/>
+      <c r="B933" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E933" t="s">
+        <v>864</v>
+      </c>
+      <c r="F933" t="s">
+        <v>545</v>
+      </c>
+      <c r="G933" s="64">
+        <v>28</v>
+      </c>
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B934" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="E934" t="s">
-        <v>356</v>
+      <c r="B934" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E934" s="49" t="s">
+        <v>866</v>
       </c>
       <c r="F934" t="s">
-        <v>875</v>
+        <v>519</v>
       </c>
       <c r="G934" s="64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="935" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B935" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C935" s="60"/>
-      <c r="D935" s="60"/>
-      <c r="E935"/>
-      <c r="F935"/>
-      <c r="G935" s="64"/>
-    </row>
-    <row r="936" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B935" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B936" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C936" s="60"/>
-      <c r="D936" s="60"/>
+      <c r="B936" s="2" t="s">
+        <v>867</v>
+      </c>
       <c r="E936" t="s">
-        <v>158</v>
+        <v>867</v>
       </c>
       <c r="F936" t="s">
-        <v>878</v>
+        <v>520</v>
       </c>
       <c r="G936" s="64">
-        <v>590</v>
+        <v>118</v>
       </c>
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B937" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E937" t="s">
-        <v>159</v>
+      <c r="B937" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E937" s="49" t="s">
+        <v>349</v>
       </c>
       <c r="F937" t="s">
-        <v>879</v>
+        <v>479</v>
       </c>
       <c r="G937" s="64">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B938" s="7" t="s">
-        <v>877</v>
-      </c>
-      <c r="E938" t="s">
-        <v>877</v>
-      </c>
-      <c r="F938" t="s">
-        <v>461</v>
-      </c>
-      <c r="G938" s="64">
-        <v>11</v>
-      </c>
+      <c r="B938" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C938" s="107"/>
+      <c r="D938" s="107"/>
     </row>
     <row r="939" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A939" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B939" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="B939" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C939" s="107"/>
+      <c r="D939" s="107"/>
       <c r="E939" t="s">
-        <v>880</v>
+        <v>143</v>
       </c>
       <c r="F939" t="s">
-        <v>881</v>
+        <v>520</v>
       </c>
       <c r="G939" s="64">
-        <v>1719</v>
+        <v>11</v>
       </c>
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B940" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C940" s="107"/>
-      <c r="D940" s="107"/>
-      <c r="E940" s="49" t="s">
-        <v>882</v>
+      <c r="B940" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E940" t="s">
+        <v>350</v>
       </c>
       <c r="F940" t="s">
-        <v>746</v>
+        <v>520</v>
       </c>
       <c r="G940" s="64">
-        <v>47</v>
+        <v>4</v>
       </c>
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B941" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C941" s="107"/>
-      <c r="D941" s="107"/>
-      <c r="E941" t="s">
-        <v>163</v>
-      </c>
-      <c r="F941" t="s">
-        <v>881</v>
-      </c>
-      <c r="G941" s="64">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="942" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B941" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A942" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B942" s="7" t="s">
-        <v>361</v>
-      </c>
+      <c r="B942" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C942" s="60"/>
+      <c r="D942" s="60"/>
       <c r="E942" t="s">
-        <v>361</v>
+        <v>146</v>
       </c>
       <c r="F942" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="G942" s="64">
-        <v>8419</v>
-      </c>
-    </row>
-    <row r="943" spans="1:7" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A943" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B943" s="7" t="s">
-        <v>164</v>
+      <c r="B943" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C943" s="60"/>
+      <c r="D943" s="60"/>
+      <c r="E943" t="s">
+        <v>868</v>
+      </c>
+      <c r="F943" t="s">
+        <v>869</v>
+      </c>
+      <c r="G943" s="64">
+        <v>625</v>
       </c>
     </row>
     <row r="944" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A944" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B944" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E944" t="s">
-        <v>165</v>
+      <c r="B944" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E944" s="49" t="s">
+        <v>870</v>
       </c>
       <c r="F944" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="G944" s="64">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="945" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B945" s="8" t="s">
-        <v>884</v>
-      </c>
-      <c r="C945" s="60"/>
-      <c r="D945" s="60"/>
-      <c r="E945" t="s">
-        <v>884</v>
-      </c>
-      <c r="F945" t="s">
-        <v>786</v>
-      </c>
-      <c r="G945" s="64">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="946" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B945" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B946" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C946" s="60"/>
-      <c r="D946" s="60"/>
-      <c r="E946" s="49" t="s">
-        <v>376</v>
+      <c r="B946" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E946" t="s">
+        <v>150</v>
       </c>
       <c r="F946" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="G946" s="64">
-        <v>6</v>
+        <v>898</v>
       </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A947" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B947" s="8" t="s">
-        <v>168</v>
+      <c r="B947" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E947" t="s">
+        <v>809</v>
+      </c>
+      <c r="F947" t="s">
+        <v>519</v>
+      </c>
+      <c r="G947" s="64">
+        <v>10</v>
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B948" s="8" t="s">
-        <v>169</v>
+      <c r="B948" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E948" t="s">
-        <v>169</v>
+        <v>871</v>
       </c>
       <c r="F948" t="s">
-        <v>468</v>
+        <v>872</v>
       </c>
       <c r="G948" s="64">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B949" s="8" t="s">
-        <v>377</v>
+      <c r="B949" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="E949" t="s">
-        <v>377</v>
+        <v>152</v>
       </c>
       <c r="F949" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="G949" s="64">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B950" s="8" t="s">
-        <v>170</v>
+      <c r="B950" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="C950" s="107"/>
+      <c r="D950" s="107"/>
+      <c r="E950" t="s">
+        <v>873</v>
+      </c>
+      <c r="F950" t="s">
+        <v>520</v>
+      </c>
+      <c r="G950" s="64">
+        <v>13</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B951" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E951" t="s">
-        <v>171</v>
+      <c r="B951" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E951" s="49" t="s">
+        <v>355</v>
       </c>
       <c r="F951" t="s">
-        <v>456</v>
+        <v>875</v>
       </c>
       <c r="G951" s="64">
-        <v>241</v>
+        <v>21</v>
       </c>
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B952" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E952" t="s">
-        <v>172</v>
+      <c r="B952" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C952" s="107"/>
+      <c r="D952" s="107"/>
+      <c r="E952" s="49" t="s">
+        <v>876</v>
       </c>
       <c r="F952" t="s">
-        <v>887</v>
+        <v>456</v>
       </c>
       <c r="G952" s="64">
-        <v>53</v>
+        <v>106</v>
       </c>
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B953" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="E953" t="s">
-        <v>886</v>
-      </c>
-      <c r="F953" t="s">
-        <v>887</v>
-      </c>
-      <c r="G953" s="64">
-        <v>141</v>
-      </c>
+      <c r="B953" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C953" s="107"/>
+      <c r="D953" s="107"/>
+      <c r="E953" s="49"/>
     </row>
     <row r="954" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A954" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B954" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E954" t="s">
-        <v>888</v>
-      </c>
-      <c r="F954" t="s">
-        <v>461</v>
-      </c>
-      <c r="G954" s="64">
-        <v>112</v>
-      </c>
+      <c r="B954" s="6" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C954" s="107"/>
+      <c r="D954" s="107"/>
+      <c r="E954" s="49"/>
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A955" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B955" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E955" s="49" t="s">
-        <v>889</v>
-      </c>
-      <c r="F955" t="s">
-        <v>456</v>
-      </c>
-      <c r="G955" s="64">
-        <v>1</v>
-      </c>
+      <c r="B955" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C955" s="107"/>
+      <c r="D955" s="107"/>
+      <c r="E955" s="49"/>
     </row>
     <row r="956" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A956" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B956" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E956" t="s">
-        <v>176</v>
-      </c>
-      <c r="F956" t="s">
-        <v>461</v>
-      </c>
-      <c r="G956" s="64">
-        <v>1404</v>
-      </c>
+      <c r="B956" s="6" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C956" s="107"/>
+      <c r="D956" s="107"/>
+      <c r="E956" s="49"/>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B957" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E957" t="s">
-        <v>416</v>
-      </c>
-      <c r="F957" t="s">
-        <v>885</v>
-      </c>
-      <c r="G957" s="64">
-        <v>10</v>
-      </c>
+      <c r="B957" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C957" s="107"/>
+      <c r="D957" s="107"/>
+      <c r="E957" s="49"/>
     </row>
     <row r="958" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A958" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B958" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E958" s="49" t="s">
-        <v>890</v>
-      </c>
-      <c r="F958" t="s">
-        <v>461</v>
-      </c>
-      <c r="G958" s="64">
-        <v>12</v>
-      </c>
+      <c r="B958" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C958" s="107"/>
+      <c r="D958" s="107"/>
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B959" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="B959" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C959" s="107"/>
+      <c r="D959" s="107"/>
     </row>
     <row r="960" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A960" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B960" s="2" t="s">
-        <v>179</v>
-      </c>
+      <c r="B960" s="6" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C960" s="107"/>
+      <c r="D960" s="107"/>
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B961" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E961" t="s">
-        <v>180</v>
-      </c>
-      <c r="F961" t="s">
-        <v>461</v>
-      </c>
-      <c r="G961" s="64">
-        <v>38</v>
-      </c>
+      <c r="B961" s="6" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C961" s="107"/>
+      <c r="D961" s="107"/>
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B962" s="2" t="s">
-        <v>424</v>
-      </c>
+      <c r="B962" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C962" s="107"/>
+      <c r="D962" s="107"/>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A963" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B963" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E963" t="s">
-        <v>891</v>
-      </c>
-      <c r="F963" t="s">
-        <v>892</v>
-      </c>
-      <c r="G963" s="64">
-        <v>8005</v>
-      </c>
+      <c r="B963" s="6" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C963" s="107"/>
+      <c r="D963" s="107"/>
     </row>
     <row r="964" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A964" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B964" s="3" t="s">
-        <v>182</v>
+      <c r="B964" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="E964" t="s">
-        <v>182</v>
+        <v>356</v>
       </c>
       <c r="F964" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="G964" s="64">
-        <v>4960</v>
-      </c>
-    </row>
-    <row r="965" spans="1:7" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A965" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B965" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="E965" t="s">
-        <v>893</v>
-      </c>
-      <c r="F965" t="s">
-        <v>569</v>
-      </c>
-      <c r="G965" s="64">
-        <v>34031</v>
-      </c>
-    </row>
-    <row r="966" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B965" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C965" s="60"/>
+      <c r="D965" s="60"/>
+      <c r="E965"/>
+      <c r="F965"/>
+      <c r="G965" s="64"/>
+    </row>
+    <row r="966" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A966" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B966" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="B966" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C966" s="60"/>
+      <c r="D966" s="60"/>
       <c r="E966" t="s">
-        <v>895</v>
+        <v>158</v>
       </c>
       <c r="F966" t="s">
-        <v>896</v>
+        <v>878</v>
       </c>
       <c r="G966" s="64">
-        <v>82</v>
+        <v>590</v>
       </c>
     </row>
     <row r="967" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A967" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B967" s="3" t="s">
-        <v>185</v>
+      <c r="B967" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E967" t="s">
+        <v>159</v>
+      </c>
+      <c r="F967" t="s">
+        <v>879</v>
+      </c>
+      <c r="G967" s="64">
+        <v>15</v>
       </c>
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B968" s="3" t="s">
-        <v>186</v>
+      <c r="B968" s="7" t="s">
+        <v>877</v>
       </c>
       <c r="E968" t="s">
-        <v>186</v>
+        <v>877</v>
       </c>
       <c r="F968" t="s">
-        <v>897</v>
+        <v>461</v>
       </c>
       <c r="G968" s="64">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B969" s="3" t="s">
-        <v>430</v>
+      <c r="B969" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="E969" t="s">
-        <v>430</v>
+        <v>880</v>
       </c>
       <c r="F969" t="s">
-        <v>456</v>
+        <v>881</v>
       </c>
       <c r="G969" s="64">
-        <v>3</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="970" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A970" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B970" s="3" t="s">
-        <v>187</v>
-      </c>
+      <c r="B970" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C970" s="107"/>
+      <c r="D970" s="107"/>
       <c r="E970" s="49" t="s">
-        <v>898</v>
+        <v>882</v>
       </c>
       <c r="F970" t="s">
-        <v>899</v>
+        <v>746</v>
       </c>
       <c r="G970" s="64">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B971" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E971" t="s">
-        <v>188</v>
-      </c>
-      <c r="F971" t="s">
-        <v>828</v>
-      </c>
-      <c r="G971" s="64">
-        <v>1077</v>
-      </c>
+      <c r="B971" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C971" s="107"/>
+      <c r="D971" s="107"/>
+      <c r="E971" s="49"/>
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B972" s="4" t="s">
-        <v>1187</v>
-      </c>
+      <c r="B972" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C972" s="107"/>
+      <c r="D972" s="107"/>
+      <c r="E972" s="49"/>
     </row>
     <row r="973" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A973" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B973" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E973" t="s">
-        <v>189</v>
-      </c>
-      <c r="F973" t="s">
-        <v>456</v>
-      </c>
-      <c r="G973" s="64">
-        <v>4</v>
-      </c>
+      <c r="B973" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C973" s="107"/>
+      <c r="D973" s="107"/>
+      <c r="E973" s="49"/>
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B974" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E974" t="s">
-        <v>190</v>
-      </c>
-      <c r="F974" t="s">
-        <v>885</v>
-      </c>
-      <c r="G974" s="64">
-        <v>2</v>
-      </c>
+      <c r="B974" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C974" s="107"/>
+      <c r="D974" s="107"/>
+      <c r="E974" s="49"/>
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A975" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B975" s="5" t="s">
-        <v>900</v>
-      </c>
-      <c r="E975" t="s">
-        <v>900</v>
-      </c>
-      <c r="F975" t="s">
-        <v>896</v>
-      </c>
-      <c r="G975" s="64">
-        <v>62</v>
-      </c>
+      <c r="B975" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C975" s="107"/>
+      <c r="D975" s="107"/>
+      <c r="E975" s="49"/>
     </row>
     <row r="976" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A976" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B976" s="5" t="s">
-        <v>192</v>
-      </c>
+      <c r="B976" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C976" s="107"/>
+      <c r="D976" s="107"/>
       <c r="E976" t="s">
-        <v>901</v>
+        <v>163</v>
       </c>
       <c r="F976" t="s">
-        <v>902</v>
+        <v>881</v>
       </c>
       <c r="G976" s="64">
-        <v>933</v>
+        <v>217</v>
       </c>
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B977" s="5" t="s">
-        <v>193</v>
+      <c r="B977" s="7" t="s">
+        <v>1293</v>
       </c>
       <c r="C977" s="107"/>
       <c r="D977" s="107"/>
-      <c r="E977" s="49" t="s">
-        <v>903</v>
-      </c>
-      <c r="F977" t="s">
-        <v>746</v>
-      </c>
-      <c r="G977" s="64">
-        <v>7166</v>
-      </c>
     </row>
     <row r="978" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A978" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B978" s="5" t="s">
-        <v>194</v>
+      <c r="B978" s="7" t="s">
+        <v>1294</v>
       </c>
       <c r="C978" s="107"/>
       <c r="D978" s="107"/>
-      <c r="E978" t="s">
-        <v>194</v>
-      </c>
-      <c r="F978" t="s">
-        <v>904</v>
-      </c>
-      <c r="G978" s="64">
-        <v>348</v>
-      </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A979" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B979" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="E979" t="s">
-        <v>435</v>
-      </c>
-      <c r="F979" t="s">
-        <v>905</v>
-      </c>
-      <c r="G979" s="64">
-        <v>11666</v>
-      </c>
+      <c r="B979" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C979" s="107"/>
+      <c r="D979" s="107"/>
     </row>
     <row r="980" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A980" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B980" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="E980" t="s">
-        <v>195</v>
-      </c>
-      <c r="F980" t="s">
-        <v>906</v>
-      </c>
-      <c r="G980" s="64">
-        <v>640</v>
-      </c>
+      <c r="B980" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C980" s="107"/>
+      <c r="D980" s="107"/>
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A981" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B981" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E981" t="s">
-        <v>196</v>
-      </c>
-      <c r="F981" t="s">
-        <v>479</v>
-      </c>
-      <c r="G981" s="64">
-        <v>30</v>
-      </c>
+        <v>1297</v>
+      </c>
+      <c r="C981" s="107"/>
+      <c r="D981" s="107"/>
     </row>
     <row r="982" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A982" s="60" t="s">
         <v>2</v>
       </c>
       <c r="B982" s="7" t="s">
-        <v>197</v>
+        <v>361</v>
+      </c>
+      <c r="E982" t="s">
+        <v>361</v>
+      </c>
+      <c r="F982" t="s">
+        <v>883</v>
+      </c>
+      <c r="G982" s="64">
+        <v>8419</v>
       </c>
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.25">
@@ -19908,92 +19859,87 @@
         <v>2</v>
       </c>
       <c r="B983" s="7" t="s">
-        <v>907</v>
-      </c>
-      <c r="E983" t="s">
-        <v>907</v>
-      </c>
-      <c r="F983" t="s">
-        <v>518</v>
-      </c>
-      <c r="G983" s="64">
-        <v>11</v>
+        <v>164</v>
       </c>
     </row>
     <row r="984" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A984" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B984" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E984" s="49" t="s">
-        <v>449</v>
+      <c r="B984" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E984" t="s">
+        <v>165</v>
       </c>
       <c r="F984" t="s">
-        <v>908</v>
+        <v>456</v>
       </c>
       <c r="G984" s="64">
-        <v>10646</v>
-      </c>
-    </row>
-    <row r="985" spans="1:7" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A985" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B985" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E985" s="49" t="s">
-        <v>909</v>
+      <c r="B985" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="C985" s="60"/>
+      <c r="D985" s="60"/>
+      <c r="E985" t="s">
+        <v>884</v>
       </c>
       <c r="F985" t="s">
-        <v>910</v>
+        <v>786</v>
       </c>
       <c r="G985" s="64">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="986" spans="1:7" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A986" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B986" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E986" t="s">
-        <v>201</v>
+      <c r="B986" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C986" s="60"/>
+      <c r="D986" s="60"/>
+      <c r="E986" s="49" t="s">
+        <v>376</v>
       </c>
       <c r="F986" t="s">
-        <v>912</v>
+        <v>468</v>
       </c>
       <c r="G986" s="64">
-        <v>3150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B987" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E987" t="s">
-        <v>450</v>
-      </c>
-      <c r="F987" t="s">
-        <v>911</v>
-      </c>
-      <c r="G987" s="64">
-        <v>11692</v>
+      <c r="B987" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B988" s="7" t="s">
-        <v>202</v>
+      <c r="B988" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E988" t="s">
+        <v>169</v>
+      </c>
+      <c r="F988" t="s">
+        <v>468</v>
+      </c>
+      <c r="G988" s="64">
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:7" x14ac:dyDescent="0.25">
@@ -20001,16 +19947,16 @@
         <v>2</v>
       </c>
       <c r="B989" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E989" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F989" t="s">
-        <v>914</v>
+        <v>885</v>
       </c>
       <c r="G989" s="64">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
@@ -20018,113 +19964,109 @@
         <v>2</v>
       </c>
       <c r="B990" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="E990" t="s">
-        <v>203</v>
-      </c>
-      <c r="F990" t="s">
-        <v>915</v>
-      </c>
-      <c r="G990" s="64">
-        <v>202021</v>
+        <v>170</v>
       </c>
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B991" s="8" t="s">
-        <v>913</v>
-      </c>
-      <c r="C991" s="107"/>
-      <c r="D991" s="107"/>
+      <c r="B991" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E991" t="s">
-        <v>913</v>
+        <v>171</v>
       </c>
       <c r="F991" t="s">
-        <v>916</v>
+        <v>456</v>
       </c>
       <c r="G991" s="64">
-        <v>43</v>
+        <v>241</v>
       </c>
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B992" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C992" s="107"/>
-      <c r="D992" s="107"/>
+      <c r="B992" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E992" t="s">
-        <v>917</v>
+        <v>172</v>
       </c>
       <c r="F992" t="s">
-        <v>552</v>
+        <v>887</v>
       </c>
       <c r="G992" s="64">
-        <v>298</v>
+        <v>53</v>
       </c>
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B993" s="8" t="s">
-        <v>206</v>
+      <c r="B993" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="E993" t="s">
+        <v>886</v>
+      </c>
+      <c r="F993" t="s">
+        <v>887</v>
+      </c>
+      <c r="G993" s="64">
+        <v>141</v>
       </c>
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B994" s="8" t="s">
-        <v>207</v>
+      <c r="B994" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="E994" t="s">
-        <v>207</v>
+        <v>888</v>
       </c>
       <c r="F994" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G994" s="64">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B995" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E995" t="s">
-        <v>383</v>
+      <c r="B995" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E995" s="49" t="s">
+        <v>889</v>
       </c>
       <c r="F995" t="s">
-        <v>918</v>
+        <v>456</v>
       </c>
       <c r="G995" s="64">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B996" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E996" s="49" t="s">
-        <v>919</v>
+      <c r="B996" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E996" t="s">
+        <v>176</v>
       </c>
       <c r="F996" t="s">
         <v>461</v>
       </c>
       <c r="G996" s="64">
-        <v>19</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
@@ -20132,16 +20074,16 @@
         <v>2</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="E997" t="s">
-        <v>209</v>
+        <v>416</v>
       </c>
       <c r="F997" t="s">
-        <v>922</v>
+        <v>885</v>
       </c>
       <c r="G997" s="64">
-        <v>462</v>
+        <v>10</v>
       </c>
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
@@ -20149,224 +20091,1030 @@
         <v>2</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E998" t="s">
-        <v>210</v>
+        <v>177</v>
+      </c>
+      <c r="E998" s="49" t="s">
+        <v>890</v>
       </c>
       <c r="F998" t="s">
-        <v>923</v>
+        <v>461</v>
       </c>
       <c r="G998" s="64">
-        <v>60516</v>
+        <v>12</v>
       </c>
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B999" s="1" t="s">
-        <v>920</v>
-      </c>
-      <c r="E999" t="s">
-        <v>920</v>
-      </c>
-      <c r="F999" t="s">
-        <v>924</v>
-      </c>
-      <c r="G999" s="64">
-        <v>76</v>
+      <c r="B999" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1000" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E1000" t="s">
-        <v>925</v>
-      </c>
-      <c r="F1000" t="s">
-        <v>926</v>
-      </c>
-      <c r="G1000" s="64">
-        <v>125262</v>
+      <c r="B1000" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1001" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1001" s="49" t="s">
-        <v>927</v>
+      <c r="B1001" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>180</v>
       </c>
       <c r="F1001" t="s">
-        <v>910</v>
+        <v>461</v>
       </c>
       <c r="G1001" s="64">
-        <v>123</v>
+        <v>38</v>
       </c>
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1002" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E1002" t="s">
-        <v>214</v>
-      </c>
-      <c r="F1002" t="s">
-        <v>530</v>
-      </c>
-      <c r="G1002" s="64">
-        <v>3906</v>
+      <c r="B1002" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1003" s="1" t="s">
-        <v>921</v>
+      <c r="B1003" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="E1003" t="s">
-        <v>388</v>
+        <v>891</v>
       </c>
       <c r="F1003" t="s">
-        <v>928</v>
+        <v>892</v>
       </c>
       <c r="G1003" s="64">
-        <v>12857</v>
+        <v>8005</v>
       </c>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1004" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1004" s="49" t="s">
-        <v>929</v>
+      <c r="B1004" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>182</v>
       </c>
       <c r="F1004" t="s">
-        <v>538</v>
+        <v>894</v>
       </c>
       <c r="G1004" s="64">
-        <v>49</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1005" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="E1005" s="55" t="s">
-        <v>932</v>
-      </c>
-      <c r="F1005" s="56" t="s">
-        <v>519</v>
+      <c r="B1005" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>569</v>
       </c>
       <c r="G1005" s="64">
-        <v>1</v>
+        <v>34031</v>
       </c>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1006" s="2" t="s">
-        <v>930</v>
+      <c r="B1006" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>895</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>896</v>
+      </c>
+      <c r="G1006" s="64">
+        <v>82</v>
       </c>
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1007" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1007" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1007" s="49" t="s">
-        <v>933</v>
-      </c>
-      <c r="F1007" t="s">
-        <v>519</v>
-      </c>
-      <c r="G1007" s="64">
-        <v>41</v>
+      <c r="B1007" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="1008" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1008" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1008" s="2" t="s">
-        <v>217</v>
+      <c r="B1008" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>897</v>
+      </c>
+      <c r="G1008" s="64">
+        <v>7</v>
       </c>
     </row>
     <row r="1009" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1009" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1009" s="2" t="s">
-        <v>218</v>
+      <c r="B1009" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>430</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1009" s="64">
+        <v>3</v>
       </c>
     </row>
     <row r="1010" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1010" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1010" s="2" t="s">
-        <v>931</v>
-      </c>
-      <c r="E1010" t="s">
-        <v>931</v>
+      <c r="B1010" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1010" s="49" t="s">
+        <v>898</v>
       </c>
       <c r="F1010" t="s">
-        <v>519</v>
+        <v>899</v>
       </c>
       <c r="G1010" s="64">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1011" s="2" t="s">
-        <v>219</v>
+      <c r="B1011" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>828</v>
+      </c>
+      <c r="G1011" s="64">
+        <v>1077</v>
       </c>
     </row>
     <row r="1012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1012" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B1012" s="2" t="s">
+      <c r="B1012" s="4" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1013" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1013" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>456</v>
+      </c>
+      <c r="G1013" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1014" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1014" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>885</v>
+      </c>
+      <c r="G1014" s="64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1015" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1015" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>900</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>896</v>
+      </c>
+      <c r="G1015" s="64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1016" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1016" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>901</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1016" s="64">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1017" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1017" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1017" s="107"/>
+      <c r="D1017" s="107"/>
+      <c r="E1017" s="49" t="s">
+        <v>903</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>746</v>
+      </c>
+      <c r="G1017" s="64">
+        <v>7166</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1018" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1018" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1018" s="107"/>
+      <c r="D1018" s="107"/>
+      <c r="E1018" s="49"/>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1019" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1019" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1019" s="107"/>
+      <c r="D1019" s="107"/>
+      <c r="E1019" s="49"/>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1020" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1020" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1020" s="107"/>
+      <c r="D1020" s="107"/>
+      <c r="E1020" s="49"/>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1021" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1021" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1021" s="107"/>
+      <c r="D1021" s="107"/>
+      <c r="E1021" s="49"/>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1022" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1022" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1022" s="107"/>
+      <c r="D1022" s="107"/>
+      <c r="E1022" s="49"/>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1023" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1023" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1023" s="107"/>
+      <c r="D1023" s="107"/>
+      <c r="E1023" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>904</v>
+      </c>
+      <c r="G1023" s="64">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1024" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1024" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1024" s="107"/>
+      <c r="D1024" s="107"/>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1025" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1025" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1025" s="107"/>
+      <c r="D1025" s="107"/>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1026" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1026" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1026" s="107"/>
+      <c r="D1026" s="107"/>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1027" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1027" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1027" s="107"/>
+      <c r="D1027" s="107"/>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1028" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1028" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C1028" s="107"/>
+      <c r="D1028" s="107"/>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1029" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1029" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>905</v>
+      </c>
+      <c r="G1029" s="64">
+        <v>11666</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1030" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1030" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1030" s="64">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1031" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1031" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1031" s="64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1032" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1032" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1033" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1033" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>907</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1033" s="64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1034" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1034" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1034" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>908</v>
+      </c>
+      <c r="G1034" s="64">
+        <v>10646</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1035" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1035" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1035" s="49" t="s">
+        <v>909</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1035" s="64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1036" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1036" s="7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E1036" s="49"/>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1037" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1037" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E1037" s="49"/>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1038" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1038" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E1038" s="49"/>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1039" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1039" s="7" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E1039" s="49"/>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1040" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1040" s="7" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1040" s="49"/>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1041" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1041" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>912</v>
+      </c>
+      <c r="G1041" s="64">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1042" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1042" s="7" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1043" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1043" s="7" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1044" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1044" s="7" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1045" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1045" s="7" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1046" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1046" s="7" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1047" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1047" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1047" s="64">
+        <v>11692</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1048" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1048" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1049" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1049" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>914</v>
+      </c>
+      <c r="G1049" s="64">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1050" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1050" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>915</v>
+      </c>
+      <c r="G1050" s="64">
+        <v>202021</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1051" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1051" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C1051" s="107"/>
+      <c r="D1051" s="107"/>
+      <c r="E1051" t="s">
+        <v>913</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>916</v>
+      </c>
+      <c r="G1051" s="64">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1052" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1052" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1052" s="107"/>
+      <c r="D1052" s="107"/>
+      <c r="E1052" t="s">
+        <v>917</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>552</v>
+      </c>
+      <c r="G1052" s="64">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1053" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1053" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1054" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1054" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1054" s="64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1055" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1055" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>383</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>918</v>
+      </c>
+      <c r="G1055" s="64">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1056" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1056" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1056" s="49" t="s">
+        <v>919</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1056" s="64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1057" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1057" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>922</v>
+      </c>
+      <c r="G1057" s="64">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1058" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1058" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1058" s="64">
+        <v>60516</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1059" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1059" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>920</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>924</v>
+      </c>
+      <c r="G1059" s="64">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1060" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1060" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>925</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>926</v>
+      </c>
+      <c r="G1060" s="64">
+        <v>125262</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1061" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1061" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1061" s="49" t="s">
+        <v>927</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>910</v>
+      </c>
+      <c r="G1061" s="64">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1062" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1062" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>530</v>
+      </c>
+      <c r="G1062" s="64">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1063" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1063" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>928</v>
+      </c>
+      <c r="G1063" s="64">
+        <v>12857</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1064" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1064" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1064" s="49" t="s">
+        <v>929</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>538</v>
+      </c>
+      <c r="G1064" s="64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1065" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E1065" s="55" t="s">
+        <v>932</v>
+      </c>
+      <c r="F1065" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1065" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1066" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1067" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1067" s="49" t="s">
+        <v>933</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1067" s="64">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1068" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1069" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1070" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1070" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>931</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1070" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1071" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1071" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1072" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1072" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E1012" s="49" t="s">
+      <c r="E1072" s="49" t="s">
         <v>934</v>
       </c>
-      <c r="F1012" t="s">
+      <c r="F1072" t="s">
         <v>522</v>
       </c>
-      <c r="G1012" s="64">
+      <c r="G1072" s="64">
         <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1012">
+  <autoFilter ref="A1:G1072">
     <sortState ref="A2:G1012">
-      <sortCondition sortBy="cellColor" ref="A1:A1012" dxfId="1"/>
+      <sortCondition sortBy="cellColor" ref="A1:A1012" dxfId="0"/>
     </sortState>
   </autoFilter>
   <sortState ref="A804:H1007">

--- a/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
+++ b/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
@@ -6710,12 +6710,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6731,6 +6725,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19766,7 +19766,7 @@
   <dimension ref="A1:AD1461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D1470" sqref="D1470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19800,7 +19800,7 @@
       <c r="F1" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="G1" s="96" t="s">
+      <c r="G1" s="94" t="s">
         <v>733</v>
       </c>
     </row>
@@ -19919,7 +19919,7 @@
       <c r="F8" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="95">
         <v>15394</v>
       </c>
     </row>
@@ -19936,7 +19936,7 @@
       <c r="F9" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="G9" s="97">
+      <c r="G9" s="95">
         <v>36148</v>
       </c>
     </row>
@@ -19953,7 +19953,7 @@
       <c r="F10" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G10" s="95">
         <v>9192</v>
       </c>
     </row>
@@ -20391,7 +20391,7 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="96" t="s">
         <v>636</v>
       </c>
       <c r="F32" s="5" t="s">
@@ -20547,7 +20547,7 @@
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="98" t="s">
+      <c r="E39" s="96" t="s">
         <v>747</v>
       </c>
       <c r="F39" s="5" t="s">
@@ -20593,7 +20593,7 @@
       <c r="F41" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="G41" s="97">
+      <c r="G41" s="95">
         <v>175</v>
       </c>
       <c r="Z41"/>
@@ -20633,13 +20633,13 @@
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="99" t="s">
+      <c r="E43" s="97" t="s">
         <v>749</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="G43" s="97">
+      <c r="G43" s="95">
         <v>3</v>
       </c>
       <c r="Z43"/>
@@ -20663,7 +20663,7 @@
       <c r="F44" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="G44" s="97">
+      <c r="G44" s="95">
         <v>24095</v>
       </c>
       <c r="Z44"/>
@@ -20687,7 +20687,7 @@
       <c r="F45" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="G45" s="97">
+      <c r="G45" s="95">
         <v>1</v>
       </c>
       <c r="Z45"/>
@@ -20711,7 +20711,7 @@
       <c r="F46" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="G46" s="97">
+      <c r="G46" s="95">
         <v>395</v>
       </c>
       <c r="Z46"/>
@@ -20731,7 +20731,7 @@
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="97"/>
+      <c r="G47" s="95"/>
       <c r="Z47"/>
       <c r="AA47"/>
       <c r="AB47"/>
@@ -20749,7 +20749,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
-      <c r="G48" s="97"/>
+      <c r="G48" s="95"/>
       <c r="Z48"/>
       <c r="AA48"/>
       <c r="AB48"/>
@@ -20767,7 +20767,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
-      <c r="G49" s="97"/>
+      <c r="G49" s="95"/>
       <c r="Z49"/>
       <c r="AA49"/>
       <c r="AB49"/>
@@ -20785,7 +20785,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
-      <c r="G50" s="97"/>
+      <c r="G50" s="95"/>
       <c r="Z50"/>
       <c r="AA50"/>
       <c r="AB50"/>
@@ -20801,13 +20801,13 @@
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="99" t="s">
+      <c r="E51" s="97" t="s">
         <v>649</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="G51" s="97">
+      <c r="G51" s="95">
         <v>73</v>
       </c>
       <c r="Z51"/>
@@ -20893,7 +20893,7 @@
       <c r="B56" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E56" s="100" t="s">
+      <c r="E56" s="98" t="s">
         <v>262</v>
       </c>
       <c r="F56" s="6" t="s">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="98" t="s">
+      <c r="E61" s="96" t="s">
         <v>263</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -21211,7 +21211,7 @@
       <c r="F73" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="G73" s="97">
+      <c r="G73" s="95">
         <v>529</v>
       </c>
       <c r="Z73"/>
@@ -21253,7 +21253,7 @@
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="98" t="s">
+      <c r="E75" s="96" t="s">
         <v>275</v>
       </c>
       <c r="F75" s="5" t="s">
@@ -21297,13 +21297,13 @@
       <c r="D77" s="7">
         <v>2010</v>
       </c>
-      <c r="E77" s="99" t="s">
+      <c r="E77" s="97" t="s">
         <v>656</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="G77" s="97">
+      <c r="G77" s="95">
         <v>14010</v>
       </c>
       <c r="Z77"/>
@@ -21323,13 +21323,13 @@
         <v>2011</v>
       </c>
       <c r="D78" s="7"/>
-      <c r="E78" s="99" t="s">
+      <c r="E78" s="97" t="s">
         <v>533</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="G78" s="97">
+      <c r="G78" s="95">
         <v>128171</v>
       </c>
       <c r="Z78"/>
@@ -21349,7 +21349,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="97"/>
+      <c r="G79" s="95"/>
       <c r="Z79"/>
       <c r="AA79"/>
       <c r="AB79"/>
@@ -21367,7 +21367,7 @@
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="97"/>
+      <c r="G80" s="95"/>
       <c r="Z80"/>
       <c r="AA80"/>
       <c r="AB80"/>
@@ -21385,7 +21385,7 @@
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="97"/>
+      <c r="G81" s="95"/>
       <c r="Z81"/>
       <c r="AA81"/>
       <c r="AB81"/>
@@ -21407,7 +21407,7 @@
       <c r="F82" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="G82" s="97">
+      <c r="G82" s="95">
         <v>11633</v>
       </c>
       <c r="Z82"/>
@@ -21431,7 +21431,7 @@
       <c r="F83" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="G83" s="97">
+      <c r="G83" s="95">
         <v>4596</v>
       </c>
       <c r="Z83"/>
@@ -21451,7 +21451,7 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="97"/>
+      <c r="G84" s="95"/>
       <c r="Z84"/>
       <c r="AA84"/>
       <c r="AB84"/>
@@ -21467,13 +21467,13 @@
       </c>
       <c r="C85" s="28"/>
       <c r="D85" s="7"/>
-      <c r="E85" s="99" t="s">
+      <c r="E85" s="97" t="s">
         <v>324</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="G85" s="97">
+      <c r="G85" s="95">
         <v>108</v>
       </c>
       <c r="Z85"/>
@@ -22267,7 +22267,7 @@
       <c r="B130" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="E130" s="100" t="s">
+      <c r="E130" s="98" t="s">
         <v>157</v>
       </c>
       <c r="F130" s="6" t="s">
@@ -22607,7 +22607,7 @@
       <c r="B149" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E149" s="100" t="s">
+      <c r="E149" s="98" t="s">
         <v>170</v>
       </c>
       <c r="F149" s="6" t="s">
@@ -22875,7 +22875,7 @@
         <v>2011</v>
       </c>
       <c r="D163" s="5"/>
-      <c r="E163" s="98" t="s">
+      <c r="E163" s="96" t="s">
         <v>691</v>
       </c>
       <c r="F163" s="5" t="s">
@@ -23057,7 +23057,7 @@
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7"/>
-      <c r="G172" s="97"/>
+      <c r="G172" s="95"/>
       <c r="Z172"/>
       <c r="AA172"/>
       <c r="AB172"/>
@@ -23075,13 +23075,13 @@
       <c r="D173" s="7">
         <v>2010</v>
       </c>
-      <c r="E173" s="99" t="s">
+      <c r="E173" s="97" t="s">
         <v>685</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="G173" s="97">
+      <c r="G173" s="95">
         <v>1717</v>
       </c>
       <c r="Z173"/>
@@ -23101,13 +23101,13 @@
         <v>2011</v>
       </c>
       <c r="D174" s="7"/>
-      <c r="E174" s="99" t="s">
+      <c r="E174" s="97" t="s">
         <v>690</v>
       </c>
       <c r="F174" s="7" t="s">
         <v>783</v>
       </c>
-      <c r="G174" s="97">
+      <c r="G174" s="95">
         <v>1187</v>
       </c>
       <c r="Z174"/>
@@ -23127,7 +23127,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
-      <c r="G175" s="97"/>
+      <c r="G175" s="95"/>
       <c r="Z175"/>
       <c r="AA175"/>
       <c r="AB175"/>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
-      <c r="G176" s="97"/>
+      <c r="G176" s="95"/>
       <c r="Z176"/>
       <c r="AA176"/>
       <c r="AB176"/>
@@ -23157,13 +23157,13 @@
       <c r="B177" s="45" t="s">
         <v>684</v>
       </c>
-      <c r="E177" s="99" t="s">
+      <c r="E177" s="97" t="s">
         <v>773</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="G177" s="97">
+      <c r="G177" s="95">
         <v>65</v>
       </c>
       <c r="Z177"/>
@@ -23185,7 +23185,7 @@
       <c r="F178" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="G178" s="97">
+      <c r="G178" s="95">
         <v>9</v>
       </c>
       <c r="Z178"/>
@@ -23207,7 +23207,7 @@
       <c r="F179" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="G179" s="97">
+      <c r="G179" s="95">
         <v>1</v>
       </c>
       <c r="Z179"/>
@@ -23225,7 +23225,7 @@
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7"/>
-      <c r="G180" s="97"/>
+      <c r="G180" s="95"/>
       <c r="Z180"/>
       <c r="AA180"/>
       <c r="AB180"/>
@@ -23241,7 +23241,7 @@
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
-      <c r="G181" s="97"/>
+      <c r="G181" s="95"/>
       <c r="Z181"/>
       <c r="AA181"/>
       <c r="AB181"/>
@@ -23258,13 +23258,13 @@
       <c r="D182" s="6">
         <v>2010</v>
       </c>
-      <c r="E182" s="99" t="s">
+      <c r="E182" s="97" t="s">
         <v>688</v>
       </c>
       <c r="F182" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="G182" s="97">
+      <c r="G182" s="95">
         <v>144</v>
       </c>
       <c r="Z182"/>
@@ -23283,13 +23283,13 @@
       <c r="C183" s="6">
         <v>2011</v>
       </c>
-      <c r="E183" s="99" t="s">
+      <c r="E183" s="97" t="s">
         <v>689</v>
       </c>
       <c r="F183" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="G183" s="97">
+      <c r="G183" s="95">
         <v>478</v>
       </c>
       <c r="Z183"/>
@@ -23307,7 +23307,7 @@
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7"/>
-      <c r="G184" s="97"/>
+      <c r="G184" s="95"/>
       <c r="Z184"/>
       <c r="AA184"/>
       <c r="AB184"/>
@@ -23325,7 +23325,7 @@
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
-      <c r="G185" s="97"/>
+      <c r="G185" s="95"/>
       <c r="Z185"/>
       <c r="AA185"/>
       <c r="AB185"/>
@@ -24134,7 +24134,7 @@
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="7"/>
-      <c r="G245" s="97"/>
+      <c r="G245" s="95"/>
       <c r="Z245"/>
       <c r="AA245"/>
       <c r="AB245"/>
@@ -24152,7 +24152,7 @@
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
-      <c r="G246" s="97"/>
+      <c r="G246" s="95"/>
       <c r="Z246"/>
       <c r="AA246"/>
       <c r="AB246"/>
@@ -24170,7 +24170,7 @@
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
-      <c r="G247" s="97"/>
+      <c r="G247" s="95"/>
       <c r="Z247"/>
       <c r="AA247"/>
       <c r="AB247"/>
@@ -24188,7 +24188,7 @@
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
-      <c r="G248" s="97"/>
+      <c r="G248" s="95"/>
       <c r="Z248"/>
       <c r="AA248"/>
       <c r="AB248"/>
@@ -24206,7 +24206,7 @@
       <c r="D249" s="7"/>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
-      <c r="G249" s="97"/>
+      <c r="G249" s="95"/>
       <c r="Z249"/>
       <c r="AA249"/>
       <c r="AB249"/>
@@ -24224,7 +24224,7 @@
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="7"/>
-      <c r="G250" s="97"/>
+      <c r="G250" s="95"/>
       <c r="Z250"/>
       <c r="AA250"/>
       <c r="AB250"/>
@@ -24242,7 +24242,7 @@
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7"/>
-      <c r="G251" s="97"/>
+      <c r="G251" s="95"/>
       <c r="Z251"/>
       <c r="AA251"/>
       <c r="AB251"/>
@@ -24260,7 +24260,7 @@
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="7"/>
-      <c r="G252" s="97"/>
+      <c r="G252" s="95"/>
       <c r="Z252"/>
       <c r="AA252"/>
       <c r="AB252"/>
@@ -26230,7 +26230,7 @@
       <c r="B396" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="E396" s="100" t="s">
+      <c r="E396" s="98" t="s">
         <v>576</v>
       </c>
       <c r="F396" s="6" t="s">
@@ -26254,7 +26254,7 @@
       </c>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
-      <c r="E397" s="98" t="s">
+      <c r="E397" s="96" t="s">
         <v>1168</v>
       </c>
       <c r="F397" s="5" t="s">
@@ -26375,7 +26375,7 @@
       </c>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
-      <c r="E403" s="98"/>
+      <c r="E403" s="96"/>
       <c r="F403" s="5"/>
       <c r="G403" s="20"/>
       <c r="Z403"/>
@@ -26393,7 +26393,7 @@
       </c>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
-      <c r="E404" s="98"/>
+      <c r="E404" s="96"/>
       <c r="F404" s="5"/>
       <c r="G404" s="20"/>
       <c r="Z404"/>
@@ -26411,7 +26411,7 @@
       </c>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
-      <c r="E405" s="98"/>
+      <c r="E405" s="96"/>
       <c r="F405" s="5"/>
       <c r="G405" s="20"/>
       <c r="Z405"/>
@@ -26429,7 +26429,7 @@
       </c>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
-      <c r="E406" s="98"/>
+      <c r="E406" s="96"/>
       <c r="F406" s="5"/>
       <c r="G406" s="20"/>
       <c r="Z406"/>
@@ -26447,7 +26447,7 @@
       </c>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
-      <c r="E407" s="98"/>
+      <c r="E407" s="96"/>
       <c r="F407" s="5"/>
       <c r="G407" s="20"/>
       <c r="Z407"/>
@@ -26465,7 +26465,7 @@
       </c>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
-      <c r="E408" s="98"/>
+      <c r="E408" s="96"/>
       <c r="F408" s="5"/>
       <c r="G408" s="20"/>
       <c r="Z408"/>
@@ -26483,7 +26483,7 @@
       </c>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
-      <c r="E409" s="98"/>
+      <c r="E409" s="96"/>
       <c r="F409" s="5"/>
       <c r="G409" s="20"/>
       <c r="Z409"/>
@@ -26501,7 +26501,7 @@
       </c>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
-      <c r="E410" s="98"/>
+      <c r="E410" s="96"/>
       <c r="F410" s="5"/>
       <c r="G410" s="20"/>
       <c r="Z410"/>
@@ -26519,7 +26519,7 @@
       </c>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
-      <c r="E411" s="98"/>
+      <c r="E411" s="96"/>
       <c r="F411" s="5"/>
       <c r="G411" s="20"/>
       <c r="Z411"/>
@@ -26913,7 +26913,7 @@
       </c>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
-      <c r="E434" s="98" t="s">
+      <c r="E434" s="96" t="s">
         <v>932</v>
       </c>
       <c r="F434" s="5" t="s">
@@ -26937,7 +26937,7 @@
       </c>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
-      <c r="E435" s="98" t="s">
+      <c r="E435" s="96" t="s">
         <v>469</v>
       </c>
       <c r="F435" s="5" t="s">
@@ -26961,7 +26961,7 @@
       </c>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
-      <c r="E436" s="98" t="s">
+      <c r="E436" s="96" t="s">
         <v>933</v>
       </c>
       <c r="F436" s="5" t="s">
@@ -27446,7 +27446,7 @@
       </c>
       <c r="C459" s="5"/>
       <c r="D459" s="5"/>
-      <c r="E459" s="98" t="s">
+      <c r="E459" s="96" t="s">
         <v>943</v>
       </c>
       <c r="F459" s="5" t="s">
@@ -27470,7 +27470,7 @@
       </c>
       <c r="C460" s="5"/>
       <c r="D460" s="5"/>
-      <c r="E460" s="98" t="s">
+      <c r="E460" s="96" t="s">
         <v>486</v>
       </c>
       <c r="F460" s="5" t="s">
@@ -29469,7 +29469,7 @@
       <c r="B567" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="E567" s="101" t="s">
+      <c r="E567" s="99" t="s">
         <v>262</v>
       </c>
       <c r="F567" s="5" t="s">
@@ -29551,7 +29551,7 @@
       <c r="B571" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="E571" s="101" t="s">
+      <c r="E571" s="99" t="s">
         <v>619</v>
       </c>
       <c r="F571" s="5" t="s">
@@ -30168,7 +30168,7 @@
       <c r="B610" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="E610" s="102" t="s">
+      <c r="E610" s="100" t="s">
         <v>1000</v>
       </c>
       <c r="F610" s="6" t="s">
@@ -31867,7 +31867,7 @@
       <c r="E708" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="F708" s="103" t="s">
+      <c r="F708" s="101" t="s">
         <v>1037</v>
       </c>
       <c r="G708" s="18">
@@ -36336,7 +36336,7 @@
       <c r="B973" s="49" t="s">
         <v>576</v>
       </c>
-      <c r="E973" s="101" t="s">
+      <c r="E973" s="99" t="s">
         <v>1173</v>
       </c>
       <c r="F973" s="5" t="s">
@@ -36480,7 +36480,7 @@
       <c r="B980" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E980" s="98" t="s">
+      <c r="E980" s="96" t="s">
         <v>461</v>
       </c>
       <c r="F980" s="5" t="s">
@@ -36524,7 +36524,7 @@
       <c r="B982" s="50" t="s">
         <v>464</v>
       </c>
-      <c r="E982" s="101" t="s">
+      <c r="E982" s="99" t="s">
         <v>464</v>
       </c>
       <c r="F982" s="5" t="s">
@@ -36568,7 +36568,7 @@
       <c r="B984" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="E984" s="101" t="s">
+      <c r="E984" s="99" t="s">
         <v>466</v>
       </c>
       <c r="F984" s="5" t="s">
@@ -36590,7 +36590,7 @@
       <c r="B985" s="50" t="s">
         <v>468</v>
       </c>
-      <c r="E985" s="101" t="s">
+      <c r="E985" s="99" t="s">
         <v>468</v>
       </c>
       <c r="F985" s="5" t="s">
@@ -36612,7 +36612,7 @@
       <c r="B986" s="50" t="s">
         <v>469</v>
       </c>
-      <c r="E986" s="101" t="s">
+      <c r="E986" s="99" t="s">
         <v>799</v>
       </c>
       <c r="F986" s="5" t="s">
@@ -36907,7 +36907,7 @@
       <c r="B1000" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="E1000" s="100" t="s">
+      <c r="E1000" s="98" t="s">
         <v>481</v>
       </c>
       <c r="F1000" s="6" t="s">
@@ -36943,7 +36943,7 @@
       </c>
       <c r="C1002" s="5"/>
       <c r="D1002" s="5"/>
-      <c r="E1002" s="100" t="s">
+      <c r="E1002" s="98" t="s">
         <v>484</v>
       </c>
       <c r="F1002" s="6" t="s">
@@ -36962,7 +36962,7 @@
       </c>
       <c r="C1003" s="5"/>
       <c r="D1003" s="5"/>
-      <c r="E1003" s="101" t="s">
+      <c r="E1003" s="99" t="s">
         <v>485</v>
       </c>
       <c r="F1003" s="5" t="s">
@@ -36981,7 +36981,7 @@
       </c>
       <c r="C1004" s="5"/>
       <c r="D1004" s="5"/>
-      <c r="E1004" s="101" t="s">
+      <c r="E1004" s="99" t="s">
         <v>486</v>
       </c>
       <c r="F1004" s="5" t="s">
@@ -37032,7 +37032,7 @@
       <c r="B1007" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="E1007" s="98" t="s">
+      <c r="E1007" s="96" t="s">
         <v>489</v>
       </c>
       <c r="F1007" s="5" t="s">
@@ -37066,7 +37066,7 @@
       <c r="B1009" s="56" t="s">
         <v>491</v>
       </c>
-      <c r="E1009" s="101" t="s">
+      <c r="E1009" s="99" t="s">
         <v>491</v>
       </c>
       <c r="F1009" s="5" t="s">
@@ -37100,7 +37100,7 @@
       <c r="B1011" s="56" t="s">
         <v>496</v>
       </c>
-      <c r="E1011" s="101" t="s">
+      <c r="E1011" s="99" t="s">
         <v>496</v>
       </c>
       <c r="F1011" s="5" t="s">
@@ -37117,7 +37117,7 @@
       <c r="B1012" s="56" t="s">
         <v>497</v>
       </c>
-      <c r="E1012" s="101" t="s">
+      <c r="E1012" s="99" t="s">
         <v>497</v>
       </c>
       <c r="F1012" s="5" t="s">
@@ -37134,7 +37134,7 @@
       <c r="B1013" s="56" t="s">
         <v>499</v>
       </c>
-      <c r="E1013" s="101" t="s">
+      <c r="E1013" s="99" t="s">
         <v>809</v>
       </c>
       <c r="F1013" s="5" t="s">
@@ -37219,7 +37219,7 @@
       <c r="B1018" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="E1018" s="101" t="s">
+      <c r="E1018" s="99" t="s">
         <v>502</v>
       </c>
       <c r="F1018" s="5" t="s">
@@ -37261,7 +37261,7 @@
       <c r="B1021" s="81" t="s">
         <v>507</v>
       </c>
-      <c r="E1021" s="100" t="s">
+      <c r="E1021" s="98" t="s">
         <v>507</v>
       </c>
       <c r="F1021" s="6" t="s">
@@ -37278,7 +37278,7 @@
       <c r="B1022" s="81" t="s">
         <v>509</v>
       </c>
-      <c r="E1022" s="100" t="s">
+      <c r="E1022" s="98" t="s">
         <v>509</v>
       </c>
       <c r="F1022" s="6" t="s">
@@ -37710,7 +37710,7 @@
       </c>
       <c r="C1045" s="6"/>
       <c r="D1045" s="6"/>
-      <c r="E1045" s="100" t="s">
+      <c r="E1045" s="98" t="s">
         <v>252</v>
       </c>
       <c r="F1045" s="6" t="s">
@@ -37767,7 +37767,7 @@
       <c r="B1047" s="82" t="s">
         <v>513</v>
       </c>
-      <c r="E1047" s="100" t="s">
+      <c r="E1047" s="98" t="s">
         <v>513</v>
       </c>
       <c r="F1047" s="6" t="s">
@@ -37784,7 +37784,7 @@
       <c r="B1048" s="82" t="s">
         <v>514</v>
       </c>
-      <c r="E1048" s="100" t="s">
+      <c r="E1048" s="98" t="s">
         <v>514</v>
       </c>
       <c r="F1048" s="6" t="s">
@@ -37801,7 +37801,7 @@
       <c r="B1049" s="82" t="s">
         <v>515</v>
       </c>
-      <c r="E1049" s="100" t="s">
+      <c r="E1049" s="98" t="s">
         <v>818</v>
       </c>
       <c r="F1049" s="6" t="s">
@@ -39055,7 +39055,7 @@
       <c r="B1118" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="E1118" s="98" t="s">
+      <c r="E1118" s="96" t="s">
         <v>807</v>
       </c>
       <c r="F1118" s="5" t="s">
@@ -39077,7 +39077,7 @@
       <c r="B1119" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="E1119" s="98" t="s">
+      <c r="E1119" s="96" t="s">
         <v>536</v>
       </c>
       <c r="F1119" s="5" t="s">
@@ -39323,7 +39323,7 @@
       <c r="B1131" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="E1131" s="98" t="s">
+      <c r="E1131" s="96" t="s">
         <v>1118</v>
       </c>
       <c r="F1131" s="5" t="s">
@@ -39345,7 +39345,7 @@
       <c r="B1132" s="85" t="s">
         <v>1112</v>
       </c>
-      <c r="E1132" s="98" t="s">
+      <c r="E1132" s="96" t="s">
         <v>1120</v>
       </c>
       <c r="F1132" s="5" t="s">
@@ -39367,7 +39367,7 @@
       <c r="B1133" s="85" t="s">
         <v>1121</v>
       </c>
-      <c r="E1133" s="98" t="s">
+      <c r="E1133" s="96" t="s">
         <v>1119</v>
       </c>
       <c r="F1133" s="5" t="s">
@@ -39391,7 +39391,7 @@
       </c>
       <c r="C1134" s="11"/>
       <c r="D1134" s="11"/>
-      <c r="E1134" s="98"/>
+      <c r="E1134" s="96"/>
       <c r="F1134" s="5"/>
       <c r="G1134" s="20"/>
       <c r="Z1134"/>
@@ -39407,7 +39407,7 @@
       <c r="B1135" s="85" t="s">
         <v>1229</v>
       </c>
-      <c r="E1135" s="98"/>
+      <c r="E1135" s="96"/>
       <c r="F1135" s="5"/>
       <c r="G1135" s="20"/>
       <c r="Z1135"/>
@@ -39423,7 +39423,7 @@
       <c r="B1136" s="85" t="s">
         <v>1113</v>
       </c>
-      <c r="E1136" s="98" t="s">
+      <c r="E1136" s="96" t="s">
         <v>1117</v>
       </c>
       <c r="F1136" s="5" t="s">
@@ -39473,7 +39473,7 @@
       <c r="B1139" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="E1139" s="100" t="s">
+      <c r="E1139" s="98" t="s">
         <v>283</v>
       </c>
       <c r="F1139" s="6" t="s">
@@ -39743,7 +39743,7 @@
       <c r="B1149" s="86" t="s">
         <v>291</v>
       </c>
-      <c r="E1149" s="100" t="s">
+      <c r="E1149" s="98" t="s">
         <v>291</v>
       </c>
       <c r="F1149" s="6" t="s">
@@ -39891,7 +39891,7 @@
       <c r="B1159" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="E1159" s="100" t="s">
+      <c r="E1159" s="98" t="s">
         <v>286</v>
       </c>
       <c r="F1159" s="6" t="s">
@@ -40163,7 +40163,7 @@
       </c>
       <c r="C1170" s="11"/>
       <c r="D1170" s="11"/>
-      <c r="E1170" s="100" t="s">
+      <c r="E1170" s="98" t="s">
         <v>313</v>
       </c>
       <c r="F1170" s="6" t="s">
@@ -40260,7 +40260,7 @@
       <c r="B1176" s="87" t="s">
         <v>548</v>
       </c>
-      <c r="E1176" s="100" t="s">
+      <c r="E1176" s="98" t="s">
         <v>548</v>
       </c>
       <c r="F1176" s="6" t="s">
@@ -40351,7 +40351,7 @@
       </c>
       <c r="C1181" s="11"/>
       <c r="D1181" s="11"/>
-      <c r="E1181" s="100" t="s">
+      <c r="E1181" s="98" t="s">
         <v>319</v>
       </c>
       <c r="F1181" s="6" t="s">
@@ -40388,7 +40388,7 @@
       </c>
       <c r="C1182" s="5"/>
       <c r="D1182" s="5"/>
-      <c r="E1182" s="100" t="s">
+      <c r="E1182" s="98" t="s">
         <v>324</v>
       </c>
       <c r="F1182" s="6" t="s">
@@ -40527,7 +40527,7 @@
       </c>
       <c r="C1188" s="5"/>
       <c r="D1188" s="5"/>
-      <c r="E1188" s="100" t="s">
+      <c r="E1188" s="98" t="s">
         <v>553</v>
       </c>
       <c r="F1188" s="6" t="s">
@@ -40845,7 +40845,7 @@
       <c r="B1206" s="85" t="s">
         <v>561</v>
       </c>
-      <c r="E1206" s="100" t="s">
+      <c r="E1206" s="98" t="s">
         <v>561</v>
       </c>
       <c r="F1206" s="6" t="s">
@@ -41064,7 +41064,7 @@
       <c r="B1216" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="E1216" s="98" t="s">
+      <c r="E1216" s="96" t="s">
         <v>813</v>
       </c>
       <c r="F1216" s="5" t="s">
@@ -41130,7 +41130,7 @@
       <c r="B1219" s="86" t="s">
         <v>569</v>
       </c>
-      <c r="E1219" s="101" t="s">
+      <c r="E1219" s="99" t="s">
         <v>812</v>
       </c>
       <c r="F1219" s="5" t="s">
@@ -41174,7 +41174,7 @@
       <c r="B1221" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="E1221" s="98" t="s">
+      <c r="E1221" s="96" t="s">
         <v>572</v>
       </c>
       <c r="F1221" s="5" t="s">
@@ -41196,7 +41196,7 @@
       <c r="B1222" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="E1222" s="101" t="s">
+      <c r="E1222" s="99" t="s">
         <v>325</v>
       </c>
       <c r="F1222" s="5" t="s">
@@ -41218,7 +41218,7 @@
       <c r="B1223" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="E1223" s="100" t="s">
+      <c r="E1223" s="98" t="s">
         <v>575</v>
       </c>
       <c r="F1223" s="6" t="s">
@@ -44714,7 +44714,7 @@
         <v>2</v>
       </c>
       <c r="B1448" s="83" t="s">
-        <v>907</v>
+        <v>387</v>
       </c>
       <c r="E1448" s="6" t="s">
         <v>387</v>
@@ -44962,13 +44962,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>1505</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="102" t="s">
         <v>1505</v>
       </c>
       <c r="D2" s="24" t="s">
@@ -44979,9 +44979,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="24" t="s">
         <v>1507</v>
       </c>
@@ -44990,14 +44990,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102" t="s">
         <v>1517</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="102" t="s">
         <v>1521</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="102" t="s">
         <v>1522</v>
       </c>
       <c r="E4" s="24" t="s">
@@ -45005,28 +45005,28 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94" t="s">
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102" t="s">
         <v>1523</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -45034,30 +45034,30 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94" t="s">
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102" t="s">
         <v>1518</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="102" t="s">
         <v>1519</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -45065,37 +45065,37 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102" t="s">
         <v>1520</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -45103,25 +45103,25 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
+      <c r="A17" s="102"/>
       <c r="B17" s="24" t="s">
         <v>1548</v>
       </c>
@@ -45136,14 +45136,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="102"/>
+      <c r="B18" s="102" t="s">
         <v>1528</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="102" t="s">
         <v>1528</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="102" t="s">
         <v>1531</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -45151,19 +45151,19 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102" t="s">
         <v>1530</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -45171,28 +45171,28 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94" t="s">
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102" t="s">
         <v>1529</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -45200,25 +45200,25 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="24" t="s">
         <v>1562</v>
       </c>
@@ -45233,14 +45233,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="102" t="s">
         <v>1532</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="102" t="s">
         <v>1532</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="102" t="s">
         <v>1536</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -45248,28 +45248,28 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102" t="s">
         <v>1537</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -45277,18 +45277,18 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="24" t="s">
         <v>1535</v>
       </c>
@@ -45297,8 +45297,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
       <c r="C33" s="24" t="s">
         <v>1533</v>
       </c>
@@ -45310,14 +45310,14 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102" t="s">
         <v>1524</v>
       </c>
-      <c r="C34" s="94" t="s">
+      <c r="C34" s="102" t="s">
         <v>1524</v>
       </c>
-      <c r="D34" s="94" t="s">
+      <c r="D34" s="102" t="s">
         <v>1527</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -45325,19 +45325,19 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102" t="s">
         <v>1525</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -45345,46 +45345,46 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
       <c r="E37" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102" t="s">
         <v>1526</v>
       </c>
       <c r="E41" s="24" t="s">
@@ -45392,41 +45392,41 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="24" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
       <c r="E43" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="102" t="s">
         <v>1508</v>
       </c>
-      <c r="C45" s="94" t="s">
+      <c r="C45" s="102" t="s">
         <v>1509</v>
       </c>
-      <c r="D45" s="94" t="s">
+      <c r="D45" s="102" t="s">
         <v>1513</v>
       </c>
       <c r="E45" s="24" t="s">
@@ -45434,46 +45434,46 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
       <c r="E47" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="24" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
       <c r="E49" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94" t="s">
+      <c r="A50" s="102"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102" t="s">
         <v>1510</v>
       </c>
       <c r="E50" s="24" t="s">
@@ -45481,64 +45481,64 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
       <c r="E52" s="24" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
       <c r="E53" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
       <c r="E54" s="24" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102"/>
       <c r="E55" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
       <c r="E56" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94" t="s">
+      <c r="A57" s="102"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102" t="s">
         <v>1512</v>
       </c>
       <c r="E57" s="24" t="s">
@@ -45546,28 +45546,28 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
       <c r="E58" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="94"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94" t="s">
+      <c r="A60" s="102"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102" t="s">
         <v>1511</v>
       </c>
       <c r="E60" s="24" t="s">
@@ -45575,39 +45575,39 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
       <c r="E61" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="24" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
       <c r="E63" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94" t="s">
+      <c r="A64" s="102"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102" t="s">
         <v>1514</v>
       </c>
-      <c r="D64" s="94" t="s">
+      <c r="D64" s="102" t="s">
         <v>1515</v>
       </c>
       <c r="E64" s="24" t="s">
@@ -45615,37 +45615,37 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
       <c r="E66" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
       <c r="E67" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94" t="s">
+      <c r="A68" s="102"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102" t="s">
         <v>1516</v>
       </c>
       <c r="E68" s="24" t="s">
@@ -45653,42 +45653,25 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
       <c r="E69" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="102"/>
       <c r="E70" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B34:B44"/>
-    <mergeCell ref="C34:C44"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="B45:B70"/>
-    <mergeCell ref="C45:C63"/>
-    <mergeCell ref="C64:C70"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D56"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="D60:D63"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="D27:D29"/>
@@ -45705,6 +45688,23 @@
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="B18:B25"/>
     <mergeCell ref="C18:C25"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="B45:B70"/>
+    <mergeCell ref="C45:C63"/>
+    <mergeCell ref="C64:C70"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45745,16 +45745,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>1505</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="102" t="s">
         <v>1505</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="102" t="s">
         <v>1506</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -45762,27 +45762,27 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
       <c r="E4" s="24" t="s">
         <v>1556</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="24" t="s">
         <v>1507</v>
       </c>
@@ -45791,14 +45791,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94" t="s">
+      <c r="A6" s="102"/>
+      <c r="B6" s="102" t="s">
         <v>1517</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="102" t="s">
         <v>1521</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="D6" s="102" t="s">
         <v>1522</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -45806,46 +45806,46 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94" t="s">
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102" t="s">
         <v>1523</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -45853,30 +45853,30 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
       <c r="E13" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="102" t="s">
         <v>1518</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="102" t="s">
         <v>1519</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -45884,55 +45884,55 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="24" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102" t="s">
         <v>1520</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -45940,25 +45940,25 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
+      <c r="A23" s="102"/>
       <c r="B23" s="24" t="s">
         <v>1548</v>
       </c>
@@ -45973,14 +45973,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="102" t="s">
         <v>1528</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="102" t="s">
         <v>1528</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="102" t="s">
         <v>1531</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -45988,37 +45988,37 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="24" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102" t="s">
         <v>1530</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -46026,55 +46026,55 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
+      <c r="A30" s="102"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
       <c r="E30" s="24" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102" t="s">
         <v>1529</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -46082,29 +46082,29 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
       <c r="E36" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94" t="s">
+      <c r="A37" s="102"/>
+      <c r="B37" s="102" t="s">
         <v>1562</v>
       </c>
-      <c r="C37" s="94" t="s">
+      <c r="C37" s="102" t="s">
         <v>1562</v>
       </c>
       <c r="D37" s="24" t="s">
@@ -46115,9 +46115,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="24" t="s">
         <v>1558</v>
       </c>
@@ -46126,14 +46126,14 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94" t="s">
+      <c r="A39" s="102"/>
+      <c r="B39" s="102" t="s">
         <v>1532</v>
       </c>
-      <c r="C39" s="94" t="s">
+      <c r="C39" s="102" t="s">
         <v>1532</v>
       </c>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="102" t="s">
         <v>1536</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -46141,37 +46141,37 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="24" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94" t="s">
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102" t="s">
         <v>1537</v>
       </c>
       <c r="E43" s="24" t="s">
@@ -46179,18 +46179,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
       <c r="E44" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
       <c r="D45" s="24" t="s">
         <v>1535</v>
       </c>
@@ -46199,12 +46199,12 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94" t="s">
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102" t="s">
         <v>1533</v>
       </c>
-      <c r="D46" s="94" t="s">
+      <c r="D46" s="102" t="s">
         <v>1534</v>
       </c>
       <c r="E46" s="24" t="s">
@@ -46212,29 +46212,29 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
       <c r="E47" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94" t="s">
+      <c r="A49" s="102"/>
+      <c r="B49" s="102" t="s">
         <v>1564</v>
       </c>
-      <c r="C49" s="94" t="s">
+      <c r="C49" s="102" t="s">
         <v>1564</v>
       </c>
       <c r="D49" s="24" t="s">
@@ -46245,10 +46245,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94" t="s">
+      <c r="A50" s="102"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="102" t="s">
         <v>1560</v>
       </c>
       <c r="E50" s="24" t="s">
@@ -46256,18 +46256,18 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
       <c r="E51" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
       <c r="D52" s="24" t="s">
         <v>1559</v>
       </c>
@@ -46276,14 +46276,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94" t="s">
+      <c r="A53" s="102"/>
+      <c r="B53" s="102" t="s">
         <v>1524</v>
       </c>
-      <c r="C53" s="94" t="s">
+      <c r="C53" s="102" t="s">
         <v>1524</v>
       </c>
-      <c r="D53" s="94" t="s">
+      <c r="D53" s="102" t="s">
         <v>1527</v>
       </c>
       <c r="E53" s="24" t="s">
@@ -46291,19 +46291,19 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
+      <c r="D54" s="102"/>
       <c r="E54" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94" t="s">
+      <c r="A55" s="102"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="102"/>
+      <c r="D55" s="102" t="s">
         <v>1525</v>
       </c>
       <c r="E55" s="24" t="s">
@@ -46311,59 +46311,59 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
       <c r="E56" s="24" t="s">
         <v>1540</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="102"/>
+      <c r="C57" s="102"/>
+      <c r="D57" s="102"/>
       <c r="E57" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="94"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="102"/>
       <c r="E58" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="94"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
       <c r="E60" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="94"/>
-      <c r="B61" s="94" t="s">
+      <c r="A61" s="102"/>
+      <c r="B61" s="102" t="s">
         <v>1508</v>
       </c>
-      <c r="C61" s="94" t="s">
+      <c r="C61" s="102" t="s">
         <v>1509</v>
       </c>
-      <c r="D61" s="94" t="s">
+      <c r="D61" s="102" t="s">
         <v>1513</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -46371,28 +46371,28 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="102"/>
+      <c r="D62" s="102"/>
       <c r="E62" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
       <c r="E63" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="94"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94" t="s">
+      <c r="A64" s="102"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102" t="s">
         <v>1510</v>
       </c>
       <c r="E64" s="24" t="s">
@@ -46400,91 +46400,91 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
       <c r="E65" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
-      <c r="B66" s="94"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="102"/>
       <c r="E66" s="24" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
       <c r="E67" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="102"/>
       <c r="E68" s="24" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
       <c r="E69" s="24" t="s">
         <v>1550</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
-      <c r="C70" s="94"/>
-      <c r="D70" s="94"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="102"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="102"/>
       <c r="E70" s="24" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
+      <c r="A71" s="102"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="102"/>
+      <c r="D71" s="102"/>
       <c r="E71" s="24" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="102"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="102"/>
       <c r="E72" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="102"/>
       <c r="E73" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
-      <c r="C74" s="94"/>
-      <c r="D74" s="94" t="s">
+      <c r="A74" s="102"/>
+      <c r="B74" s="102"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102" t="s">
         <v>1512</v>
       </c>
       <c r="E74" s="24" t="s">
@@ -46492,46 +46492,46 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="102"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="102"/>
       <c r="E75" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="94"/>
-      <c r="B76" s="94"/>
-      <c r="C76" s="94"/>
-      <c r="D76" s="94"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
       <c r="E76" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="94"/>
-      <c r="B77" s="94"/>
-      <c r="C77" s="94"/>
-      <c r="D77" s="94"/>
+      <c r="A77" s="102"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
       <c r="E77" s="24" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="94"/>
-      <c r="B78" s="94"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="94"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="102"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102"/>
       <c r="E78" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="94"/>
-      <c r="B79" s="94"/>
-      <c r="C79" s="94"/>
-      <c r="D79" s="94" t="s">
+      <c r="A79" s="102"/>
+      <c r="B79" s="102"/>
+      <c r="C79" s="102"/>
+      <c r="D79" s="102" t="s">
         <v>1511</v>
       </c>
       <c r="E79" s="24" t="s">
@@ -46539,48 +46539,48 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
-      <c r="B80" s="94"/>
-      <c r="C80" s="94"/>
-      <c r="D80" s="94"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="102"/>
+      <c r="D80" s="102"/>
       <c r="E80" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="94"/>
-      <c r="B81" s="94"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="94"/>
+      <c r="A81" s="102"/>
+      <c r="B81" s="102"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="102"/>
       <c r="E81" s="24" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="94"/>
-      <c r="B82" s="94"/>
-      <c r="C82" s="94"/>
-      <c r="D82" s="94"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="102"/>
       <c r="E82" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
+      <c r="A83" s="102"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
       <c r="E83" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="94"/>
-      <c r="B84" s="94"/>
-      <c r="C84" s="94" t="s">
+      <c r="A84" s="102"/>
+      <c r="B84" s="102"/>
+      <c r="C84" s="102" t="s">
         <v>1514</v>
       </c>
-      <c r="D84" s="94" t="s">
+      <c r="D84" s="102" t="s">
         <v>1515</v>
       </c>
       <c r="E84" s="24" t="s">
@@ -46588,46 +46588,46 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="94"/>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="94"/>
+      <c r="A85" s="102"/>
+      <c r="B85" s="102"/>
+      <c r="C85" s="102"/>
+      <c r="D85" s="102"/>
       <c r="E85" s="24" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="94"/>
-      <c r="B86" s="94"/>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
+      <c r="A86" s="102"/>
+      <c r="B86" s="102"/>
+      <c r="C86" s="102"/>
+      <c r="D86" s="102"/>
       <c r="E86" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="94"/>
-      <c r="B87" s="94"/>
-      <c r="C87" s="94"/>
-      <c r="D87" s="94"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="102"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="102"/>
       <c r="E87" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94"/>
+      <c r="A88" s="102"/>
+      <c r="B88" s="102"/>
+      <c r="C88" s="102"/>
+      <c r="D88" s="102"/>
       <c r="E88" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="94"/>
-      <c r="B89" s="94"/>
-      <c r="C89" s="94"/>
-      <c r="D89" s="94" t="s">
+      <c r="A89" s="102"/>
+      <c r="B89" s="102"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="102" t="s">
         <v>1516</v>
       </c>
       <c r="E89" s="24" t="s">
@@ -46635,51 +46635,25 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="94"/>
-      <c r="B90" s="94"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="94"/>
+      <c r="A90" s="102"/>
+      <c r="B90" s="102"/>
+      <c r="C90" s="102"/>
+      <c r="D90" s="102"/>
       <c r="E90" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="94"/>
-      <c r="B91" s="94"/>
-      <c r="C91" s="94"/>
-      <c r="D91" s="94"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="102"/>
       <c r="E91" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D84:D88"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="B53:B60"/>
-    <mergeCell ref="C53:C60"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="B61:B91"/>
-    <mergeCell ref="C61:C83"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="D79:D83"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D33"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D22"/>
     <mergeCell ref="A2:A91"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B22"/>
@@ -46694,6 +46668,32 @@
     <mergeCell ref="C24:C36"/>
     <mergeCell ref="C46:C48"/>
     <mergeCell ref="C84:C91"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="D28:D33"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D84:D88"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="B53:B60"/>
+    <mergeCell ref="C53:C60"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="B61:B91"/>
+    <mergeCell ref="C61:C83"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D64:D73"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="D79:D83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -46734,16 +46734,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>1505</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="102" t="s">
         <v>1505</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="102" t="s">
         <v>1506</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -46751,20 +46751,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102" t="s">
         <v>1517</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="102" t="s">
         <v>1521</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -46775,10 +46775,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102" t="s">
         <v>1523</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -46786,30 +46786,30 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102" t="s">
         <v>1518</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="102" t="s">
         <v>1519</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -46817,36 +46817,36 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="24" t="s">
         <v>1520</v>
       </c>
@@ -46855,7 +46855,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
+      <c r="A13" s="102"/>
       <c r="B13" s="24" t="s">
         <v>1548</v>
       </c>
@@ -46870,14 +46870,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="102" t="s">
         <v>1528</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="C14" s="102" t="s">
         <v>1528</v>
       </c>
-      <c r="D14" s="94" t="s">
+      <c r="D14" s="102" t="s">
         <v>1531</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -46885,19 +46885,19 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
       <c r="E15" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102" t="s">
         <v>1530</v>
       </c>
       <c r="E16" s="24" t="s">
@@ -46905,37 +46905,37 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
       <c r="E17" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102" t="s">
         <v>1529</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -46943,41 +46943,41 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
       <c r="E21" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94" t="s">
+      <c r="A24" s="102"/>
+      <c r="B24" s="102" t="s">
         <v>1532</v>
       </c>
-      <c r="C24" s="94" t="s">
+      <c r="C24" s="102" t="s">
         <v>1532</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="D24" s="102" t="s">
         <v>1537</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -46985,30 +46985,30 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94" t="s">
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102" t="s">
         <v>1533</v>
       </c>
-      <c r="D27" s="94" t="s">
+      <c r="D27" s="102" t="s">
         <v>1534</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -47016,32 +47016,32 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="94"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
       <c r="E28" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="94"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
       <c r="E29" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94" t="s">
+      <c r="A30" s="102"/>
+      <c r="B30" s="102" t="s">
         <v>1564</v>
       </c>
-      <c r="C30" s="94" t="s">
+      <c r="C30" s="102" t="s">
         <v>1564</v>
       </c>
-      <c r="D30" s="94" t="s">
+      <c r="D30" s="102" t="s">
         <v>1557</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -47049,27 +47049,27 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
       <c r="E31" s="24" t="s">
         <v>1543</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
       <c r="D33" s="24" t="s">
         <v>1560</v>
       </c>
@@ -47078,10 +47078,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94" t="s">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102" t="s">
         <v>1559</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -47089,20 +47089,20 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94" t="s">
+      <c r="A36" s="102"/>
+      <c r="B36" s="102" t="s">
         <v>1524</v>
       </c>
-      <c r="C36" s="94" t="s">
+      <c r="C36" s="102" t="s">
         <v>1524</v>
       </c>
       <c r="D36" s="24" t="s">
@@ -47113,10 +47113,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94" t="s">
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102" t="s">
         <v>1527</v>
       </c>
       <c r="E37" s="24" t="s">
@@ -47124,28 +47124,28 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="94"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="102"/>
+      <c r="C38" s="102"/>
+      <c r="D38" s="102"/>
       <c r="E38" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="102"/>
+      <c r="C39" s="102"/>
+      <c r="D39" s="102"/>
       <c r="E39" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94" t="s">
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102" t="s">
         <v>1525</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -47153,27 +47153,27 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="94"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="102"/>
       <c r="D43" s="24" t="s">
         <v>1526</v>
       </c>
@@ -47182,11 +47182,11 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94" t="s">
+      <c r="A44" s="102"/>
+      <c r="B44" s="102" t="s">
         <v>1508</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="102" t="s">
         <v>1509</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -47197,10 +47197,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94" t="s">
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102" t="s">
         <v>1510</v>
       </c>
       <c r="E45" s="24" t="s">
@@ -47208,45 +47208,45 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
       <c r="E46" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="102"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="102"/>
       <c r="E47" s="24" t="s">
         <v>1544</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
       <c r="E48" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
       <c r="E49" s="24" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
       <c r="D50" s="24" t="s">
         <v>1511</v>
       </c>
@@ -47255,12 +47255,12 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
-      <c r="C51" s="94" t="s">
+      <c r="A51" s="102"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102" t="s">
         <v>1514</v>
       </c>
-      <c r="D51" s="94" t="s">
+      <c r="D51" s="102" t="s">
         <v>1515</v>
       </c>
       <c r="E51" s="24" t="s">
@@ -47268,27 +47268,27 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
       <c r="E52" s="24" t="s">
         <v>1552</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
       <c r="E53" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="24" t="s">
         <v>1516</v>
       </c>
@@ -47298,22 +47298,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C36:C43"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="C30:C35"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A2:A54"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="B14:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B36:B43"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="D8:D11"/>
@@ -47324,12 +47314,22 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A2:A54"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="B14:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="C30:C35"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C36:C43"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D51:D53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47370,16 +47370,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B2" s="94" t="s">
+      <c r="A2" s="102" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B2" s="102" t="s">
         <v>1517</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="102" t="s">
         <v>1521</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="102" t="s">
         <v>1522</v>
       </c>
       <c r="E2" s="24" t="s">
@@ -47387,19 +47387,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
       <c r="E3" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102" t="s">
         <v>1523</v>
       </c>
       <c r="E4" s="24" t="s">
@@ -47407,39 +47407,39 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
+      <c r="A6" s="102"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
       <c r="E6" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
       <c r="E7" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94" t="s">
+      <c r="A8" s="102"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102" t="s">
         <v>1518</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="D8" s="102" t="s">
         <v>1519</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -47447,45 +47447,45 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
       <c r="E10" s="24" t="s">
         <v>1554</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
       <c r="E11" s="24" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
+      <c r="A12" s="102"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
       <c r="E12" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="24" t="s">
         <v>1520</v>
       </c>
@@ -47494,7 +47494,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
+      <c r="A14" s="102"/>
       <c r="B14" s="24" t="s">
         <v>1548</v>
       </c>
@@ -47509,14 +47509,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="102"/>
+      <c r="B15" s="102" t="s">
         <v>1532</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="102" t="s">
         <v>1533</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="102" t="s">
         <v>1534</v>
       </c>
       <c r="E15" s="24" t="s">
@@ -47524,23 +47524,23 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="102" t="s">
         <v>1524</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="102" t="s">
         <v>1524</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="102" t="s">
         <v>1525</v>
       </c>
       <c r="E17" s="24" t="s">
@@ -47548,27 +47548,27 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
       <c r="E18" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
       <c r="E19" s="24" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="94"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
       <c r="D20" s="24" t="s">
         <v>1526</v>
       </c>
@@ -47577,14 +47577,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="102" t="s">
         <v>1508</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="C21" s="102" t="s">
         <v>1509</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="D21" s="102" t="s">
         <v>1510</v>
       </c>
       <c r="E21" s="24" t="s">
@@ -47592,39 +47592,39 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
       <c r="E22" s="24" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
+      <c r="A23" s="102"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
       <c r="E23" s="24" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
+      <c r="A24" s="102"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="24" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94" t="s">
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102" t="s">
         <v>1514</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="D25" s="102" t="s">
         <v>1515</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -47632,27 +47632,27 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
+      <c r="A26" s="102"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
       <c r="E26" s="24" t="s">
         <v>1549</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
+      <c r="A27" s="102"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
       <c r="E27" s="24" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="94"/>
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="24" t="s">
         <v>1516</v>
       </c>
@@ -47662,24 +47662,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B28"/>
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="C17:C20"/>
     <mergeCell ref="D17:D19"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B28"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47720,7 +47720,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="103" t="s">
         <v>1504</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -47737,14 +47737,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95" t="s">
+      <c r="A3" s="103"/>
+      <c r="B3" s="103" t="s">
         <v>1517</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="103" t="s">
         <v>1521</v>
       </c>
-      <c r="D3" s="95" t="s">
+      <c r="D3" s="103" t="s">
         <v>1522</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -47752,37 +47752,37 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
+      <c r="A4" s="103"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="4" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="A6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95" t="s">
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103" t="s">
         <v>1523</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -47790,57 +47790,57 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="4" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="A10" s="103"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="4" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="103" t="s">
         <v>1518</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="103" t="s">
         <v>1519</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -47848,16 +47848,16 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="4" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
+      <c r="A15" s="103"/>
       <c r="B15" s="4" t="s">
         <v>1548</v>
       </c>
@@ -47872,11 +47872,11 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="103" t="s">
         <v>1528</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="103" t="s">
         <v>1528</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -47887,10 +47887,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103" t="s">
         <v>1530</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -47898,55 +47898,55 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="4" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
+      <c r="A19" s="103"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="4" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95" t="s">
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103" t="s">
         <v>1529</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -47954,38 +47954,38 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
+      <c r="A25" s="103"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
+      <c r="A26" s="103"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
       <c r="E26" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95" t="s">
+      <c r="A27" s="103"/>
+      <c r="B27" s="103" t="s">
         <v>1532</v>
       </c>
-      <c r="C27" s="95" t="s">
+      <c r="C27" s="103" t="s">
         <v>1532</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -47996,10 +47996,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95" t="s">
+      <c r="A28" s="103"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="103" t="s">
         <v>1537</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -48007,19 +48007,19 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="A29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="4" t="s">
         <v>1545</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95" t="s">
+      <c r="A30" s="103"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103" t="s">
         <v>1535</v>
       </c>
       <c r="E30" s="4" t="s">
@@ -48027,17 +48027,17 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="103"/>
       <c r="E31" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
+      <c r="A32" s="103"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="4" t="s">
         <v>1533</v>
       </c>
@@ -48049,14 +48049,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="95" t="s">
+      <c r="A33" s="103"/>
+      <c r="B33" s="103" t="s">
         <v>1524</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="103" t="s">
         <v>1524</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="D33" s="103" t="s">
         <v>1527</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -48064,46 +48064,46 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="95"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
       <c r="E34" s="4" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="95"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
       <c r="E35" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="95"/>
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="95"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
       <c r="E36" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="95"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
       <c r="E37" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95" t="s">
+      <c r="A38" s="103"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="103"/>
+      <c r="D38" s="103" t="s">
         <v>1525</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -48111,64 +48111,64 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
       <c r="E39" s="4" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
+      <c r="A40" s="103"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="4" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="95"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="103"/>
       <c r="E41" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
+      <c r="A42" s="103"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
       <c r="E42" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="95"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
       <c r="E43" s="4" t="s">
         <v>1553</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
+      <c r="A44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95" t="s">
+      <c r="A45" s="103"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="103"/>
+      <c r="D45" s="103" t="s">
         <v>1526</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -48176,59 +48176,59 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
       <c r="E46" s="4" t="s">
         <v>1539</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
+      <c r="A47" s="103"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
       <c r="E47" s="4" t="s">
         <v>1541</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
+      <c r="A48" s="103"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
+      <c r="A49" s="103"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
       <c r="E49" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
       <c r="E50" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
-      <c r="B51" s="95" t="s">
+      <c r="A51" s="103"/>
+      <c r="B51" s="103" t="s">
         <v>1508</v>
       </c>
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="103" t="s">
         <v>1509</v>
       </c>
-      <c r="D51" s="95" t="s">
+      <c r="D51" s="103" t="s">
         <v>1510</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -48236,37 +48236,37 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
+      <c r="A52" s="103"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
       <c r="E52" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
+      <c r="A53" s="103"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
       <c r="E53" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
       <c r="E54" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="95"/>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95" t="s">
+      <c r="A55" s="103"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103" t="s">
         <v>1512</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -48274,27 +48274,27 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
+      <c r="A56" s="103"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
       <c r="E56" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
       <c r="E57" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
+      <c r="A58" s="103"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="4" t="s">
         <v>1511</v>
       </c>
@@ -48303,12 +48303,12 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95" t="s">
+      <c r="A59" s="103"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103" t="s">
         <v>1514</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="103" t="s">
         <v>1515</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -48316,28 +48316,28 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="95"/>
+      <c r="A60" s="103"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
       <c r="E60" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
+      <c r="A61" s="103"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
       <c r="E61" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95" t="s">
+      <c r="A62" s="103"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103" t="s">
         <v>1516</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -48345,36 +48345,25 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
+      <c r="A63" s="103"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
       <c r="E63" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
+      <c r="A64" s="103"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="103"/>
+      <c r="D64" s="103"/>
       <c r="E64" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="B51:B64"/>
-    <mergeCell ref="C51:C58"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="D51:D54"/>
     <mergeCell ref="A2:A64"/>
     <mergeCell ref="B3:B14"/>
     <mergeCell ref="C3:C12"/>
@@ -48391,6 +48380,17 @@
     <mergeCell ref="D38:D44"/>
     <mergeCell ref="D45:D50"/>
     <mergeCell ref="D23:D26"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="B51:B64"/>
+    <mergeCell ref="C51:C58"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="D51:D54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
+++ b/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joeg\Metier work\RCG_intersessional_work_2023\Task1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JOEG\GitHub\RCGs\Metiers\Reference_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A130A377-B37F-49C0-AAD9-32FE4ABFFC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="1680" windowWidth="20748" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="744" yWindow="1680" windowWidth="20748" windowHeight="9744"/>
   </bookViews>
   <sheets>
     <sheet name="Metier list final" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8621" uniqueCount="2093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8620" uniqueCount="2093">
   <si>
     <t>RCG</t>
   </si>
@@ -7582,7 +7581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
@@ -8110,9 +8109,9 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Komma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8389,11 +8388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12644,7 +12643,7 @@
         <v>1942</v>
       </c>
       <c r="J200" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K200">
         <v>20220909</v>
@@ -12664,7 +12663,7 @@
         <v>1942</v>
       </c>
       <c r="J201" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K201">
         <v>20220909</v>
@@ -12684,7 +12683,7 @@
         <v>1942</v>
       </c>
       <c r="J202" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K202">
         <v>20220909</v>
@@ -12707,7 +12706,7 @@
         <v>1942</v>
       </c>
       <c r="J203" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K203">
         <v>20220909</v>
@@ -12730,7 +12729,7 @@
         <v>1942</v>
       </c>
       <c r="J204" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K204">
         <v>20220909</v>
@@ -12750,7 +12749,7 @@
         <v>1942</v>
       </c>
       <c r="J205" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K205">
         <v>20220909</v>
@@ -12770,7 +12769,7 @@
         <v>1942</v>
       </c>
       <c r="J206" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K206">
         <v>20220909</v>
@@ -12790,7 +12789,7 @@
         <v>1942</v>
       </c>
       <c r="J207" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K207">
         <v>20220909</v>
@@ -12810,7 +12809,7 @@
         <v>1942</v>
       </c>
       <c r="J208" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K208">
         <v>20220909</v>
@@ -12830,7 +12829,7 @@
         <v>1942</v>
       </c>
       <c r="J209" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="K209">
         <v>20220909</v>
@@ -15896,9 +15895,6 @@
       </c>
       <c r="I396" t="s">
         <v>1889</v>
-      </c>
-      <c r="J396" t="s">
-        <v>1962</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.3">
@@ -41181,8 +41177,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1639" xr:uid="{BA120059-7572-4482-842F-ABA6C19BDBE9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1577">
+  <autoFilter ref="A1:L1639"/>
+  <sortState ref="A2:G1577">
     <sortCondition ref="A2:A1577"/>
     <sortCondition ref="B2:B1577"/>
   </sortState>

--- a/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
+++ b/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Metier list final'!$A$1:$L$1639</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -7470,9 +7470,6 @@
     <t>LA_SLP_&gt;0_0_0</t>
   </si>
   <si>
-    <t>LA_SLP_&lt;14_0_0_0</t>
-  </si>
-  <si>
     <t>Lamprette, Small and large pelagic species, see the coe reg. mesh size ans selectivity device</t>
   </si>
   <si>
@@ -7530,15 +7527,9 @@
     <t>LA_LPF_&gt;0_0_0</t>
   </si>
   <si>
-    <t>LA_LPF_&lt;14_0_0_0</t>
-  </si>
-  <si>
     <t>LA_LPF_&gt;=14_0_0</t>
   </si>
   <si>
-    <t>LA_SPF_&lt;14_0_0_0</t>
-  </si>
-  <si>
     <t>LA_SPF_&gt;=14_0_0</t>
   </si>
   <si>
@@ -7576,6 +7567,15 @@
   </si>
   <si>
     <t>Request from Spain</t>
+  </si>
+  <si>
+    <t>LA_LPF_&lt;14_0_0</t>
+  </si>
+  <si>
+    <t>LA_SLP_&lt;14_0_0</t>
+  </si>
+  <si>
+    <t>LA_SPF_&lt;14_0_0</t>
   </si>
 </sst>
 </file>
@@ -8392,7 +8392,7 @@
   <dimension ref="A1:AD1639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8447,7 +8447,7 @@
         <v>1974</v>
       </c>
       <c r="L1" s="88" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -13241,7 +13241,7 @@
         <v>1276</v>
       </c>
       <c r="B231" s="78" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="H231" s="86" t="s">
         <v>1710</v>
@@ -13311,7 +13311,7 @@
         <v>1276</v>
       </c>
       <c r="B236" s="78" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="H236" s="86" t="s">
         <v>1626</v>
@@ -13381,7 +13381,7 @@
         <v>1276</v>
       </c>
       <c r="B241" s="78" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="H241" s="86" t="s">
         <v>1629</v>
@@ -13465,7 +13465,7 @@
         <v>1276</v>
       </c>
       <c r="B247" s="78" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="H247" s="86" t="s">
         <v>1633</v>
@@ -13880,7 +13880,7 @@
         <v>20221214</v>
       </c>
       <c r="L272" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
@@ -13888,7 +13888,7 @@
         <v>1276</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="C273" s="8"/>
       <c r="D273" s="8"/>
@@ -13905,7 +13905,7 @@
         <v>20221214</v>
       </c>
       <c r="L273" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
@@ -13930,7 +13930,7 @@
         <v>20221214</v>
       </c>
       <c r="L274" s="8" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.3">
@@ -13988,14 +13988,14 @@
         <v>1608</v>
       </c>
       <c r="I278" s="8" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="J278" s="8"/>
       <c r="K278" s="8">
         <v>20221214</v>
       </c>
       <c r="L278" s="8" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
@@ -14011,14 +14011,14 @@
         <v>1608</v>
       </c>
       <c r="I279" s="8" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="J279" s="8"/>
       <c r="K279" s="8">
         <v>20221214</v>
       </c>
       <c r="L279" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
@@ -14026,7 +14026,7 @@
         <v>1276</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="C280" s="8"/>
       <c r="D280" s="8"/>
@@ -14034,14 +14034,14 @@
         <v>1608</v>
       </c>
       <c r="I280" s="8" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="J280" s="8"/>
       <c r="K280" s="8">
         <v>20221214</v>
       </c>
       <c r="L280" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
@@ -14138,7 +14138,7 @@
         <v>1276</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="C287" s="15"/>
       <c r="D287" s="3"/>
@@ -14313,7 +14313,7 @@
         <v>1276</v>
       </c>
       <c r="B297" s="25" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="H297" s="86" t="s">
         <v>1704</v>
@@ -14585,7 +14585,7 @@
         <v>1277</v>
       </c>
       <c r="B316" s="91" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="C316" s="8"/>
       <c r="D316" s="8"/>
@@ -14600,7 +14600,7 @@
         <v>20221214</v>
       </c>
       <c r="L316" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
@@ -14608,7 +14608,7 @@
         <v>1277</v>
       </c>
       <c r="B317" s="91" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="C317" s="8"/>
       <c r="D317" s="8"/>
@@ -14623,7 +14623,7 @@
         <v>20221214</v>
       </c>
       <c r="L317" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
@@ -14646,7 +14646,7 @@
         <v>20221214</v>
       </c>
       <c r="L318" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
@@ -14948,7 +14948,7 @@
         <v>1277</v>
       </c>
       <c r="B340" s="91" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="C340" s="8"/>
       <c r="D340" s="8"/>
@@ -14961,7 +14961,7 @@
         <v>20221214</v>
       </c>
       <c r="L340" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.3">
@@ -14969,7 +14969,7 @@
         <v>1277</v>
       </c>
       <c r="B341" s="91" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="C341" s="8"/>
       <c r="D341" s="8"/>
@@ -14982,7 +14982,7 @@
         <v>20221214</v>
       </c>
       <c r="L341" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
@@ -15003,7 +15003,7 @@
         <v>20221214</v>
       </c>
       <c r="L342" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
@@ -15179,22 +15179,22 @@
         <v>1277</v>
       </c>
       <c r="B355" s="91" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="C355" s="8"/>
       <c r="D355" s="8"/>
       <c r="H355" s="90" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="I355" s="8" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="J355" s="8"/>
       <c r="K355" s="8">
         <v>20221214</v>
       </c>
       <c r="L355" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
@@ -15202,22 +15202,22 @@
         <v>1277</v>
       </c>
       <c r="B356" s="91" t="s">
-        <v>2077</v>
+        <v>2090</v>
       </c>
       <c r="C356" s="8"/>
       <c r="D356" s="8"/>
       <c r="H356" s="90" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="I356" s="8" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="J356" s="8"/>
       <c r="K356" s="8">
         <v>20221214</v>
       </c>
       <c r="L356" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
@@ -15225,22 +15225,22 @@
         <v>1277</v>
       </c>
       <c r="B357" s="91" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="C357" s="8"/>
       <c r="D357" s="8"/>
       <c r="H357" s="90" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="I357" s="8" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="J357" s="8"/>
       <c r="K357" s="8">
         <v>20221214</v>
       </c>
       <c r="L357" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
@@ -15256,14 +15256,14 @@
         <v>2055</v>
       </c>
       <c r="I358" s="8" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J358" s="8"/>
       <c r="K358" s="8">
         <v>20221214</v>
       </c>
       <c r="L358" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
@@ -15271,7 +15271,7 @@
         <v>1277</v>
       </c>
       <c r="B359" s="91" t="s">
-        <v>2057</v>
+        <v>2091</v>
       </c>
       <c r="C359" s="8"/>
       <c r="D359" s="8"/>
@@ -15279,14 +15279,14 @@
         <v>2055</v>
       </c>
       <c r="I359" s="8" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J359" s="8"/>
       <c r="K359" s="8">
         <v>20221214</v>
       </c>
       <c r="L359" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
@@ -15302,14 +15302,14 @@
         <v>2055</v>
       </c>
       <c r="I360" s="8" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="J360" s="8"/>
       <c r="K360" s="8">
         <v>20221214</v>
       </c>
       <c r="L360" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
@@ -15325,14 +15325,14 @@
         <v>1730</v>
       </c>
       <c r="I361" s="8" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="J361" s="8"/>
       <c r="K361" s="8">
         <v>20221214</v>
       </c>
       <c r="L361" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
@@ -15340,7 +15340,7 @@
         <v>1277</v>
       </c>
       <c r="B362" s="91" t="s">
-        <v>2079</v>
+        <v>2092</v>
       </c>
       <c r="C362" s="8"/>
       <c r="D362" s="8"/>
@@ -15348,14 +15348,14 @@
         <v>1730</v>
       </c>
       <c r="I362" s="8" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="J362" s="8"/>
       <c r="K362" s="8">
         <v>20221214</v>
       </c>
       <c r="L362" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
@@ -15363,7 +15363,7 @@
         <v>1277</v>
       </c>
       <c r="B363" s="91" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="C363" s="8"/>
       <c r="D363" s="8"/>
@@ -15371,14 +15371,14 @@
         <v>1730</v>
       </c>
       <c r="I363" s="8" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="J363" s="8"/>
       <c r="K363" s="8">
         <v>20221214</v>
       </c>
       <c r="L363" s="8" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
@@ -15457,7 +15457,7 @@
         <v>20221214</v>
       </c>
       <c r="L368" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.3">
@@ -15536,7 +15536,7 @@
         <v>20221214</v>
       </c>
       <c r="L373" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
@@ -15615,7 +15615,7 @@
         <v>20221214</v>
       </c>
       <c r="L378" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
@@ -15631,14 +15631,14 @@
         <v>1587</v>
       </c>
       <c r="I379" s="8" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="J379" s="8"/>
       <c r="K379" s="8">
         <v>20221214</v>
       </c>
       <c r="L379" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
@@ -15738,14 +15738,14 @@
         <v>1678</v>
       </c>
       <c r="I386" s="8" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="J386" s="8"/>
       <c r="K386" s="8">
         <v>20221214</v>
       </c>
       <c r="L386" s="8" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.3">
@@ -15753,22 +15753,22 @@
         <v>1277</v>
       </c>
       <c r="B387" s="91" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="C387" s="8"/>
       <c r="D387" s="8"/>
       <c r="H387" s="90" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="I387" s="8" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="J387" s="8"/>
       <c r="K387" s="8">
         <v>20221214</v>
       </c>
       <c r="L387" s="8" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.3">
@@ -16699,22 +16699,22 @@
         <v>1277</v>
       </c>
       <c r="B449" s="91" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="C449" s="8"/>
       <c r="D449" s="8"/>
       <c r="H449" s="90" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="I449" s="8" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="J449" s="8"/>
       <c r="K449" s="8">
         <v>20221214</v>
       </c>
       <c r="L449" s="8" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.3">

--- a/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
+++ b/Metiers/Reference_lists/RDB_ISSG_Metier_list.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JOEG\GitHub\RCGs\Metiers\Reference_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joeg\Metier work\RCG_intersessional_work_2025\Meeting 20250124\Task 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCE9C9D-530A-434F-BC2B-00003F1EFC35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="744" yWindow="1680" windowWidth="20748" windowHeight="9744"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metier list final" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Metier list final'!$A$1:$L$1646</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Metier list final'!$A$1:$AD$1657</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8658" uniqueCount="2110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8716" uniqueCount="2124">
   <si>
     <t>RCG</t>
   </si>
@@ -7628,11 +7629,53 @@
   <si>
     <t>OTM_CRU_16-31_0_0</t>
   </si>
+  <si>
+    <t>TBB_MOL_&lt;40_0_0</t>
+  </si>
+  <si>
+    <t>TBB_MOL_&gt;=40_0_0</t>
+  </si>
+  <si>
+    <t>GNC_FIF_&lt;16_0_0</t>
+  </si>
+  <si>
+    <t>GNC_FIF_&gt;=16_0_0</t>
+  </si>
+  <si>
+    <t>GNC_FIF_&gt;0_0_0</t>
+  </si>
+  <si>
+    <t>GNC_FIF</t>
+  </si>
+  <si>
+    <t>Encircling gillnets, Finfish, see the code reg. mesh size and selectivity device</t>
+  </si>
+  <si>
+    <t>GTN_SPF_&lt;16_0_0</t>
+  </si>
+  <si>
+    <t>GTN_SPF_&gt;=16_0_0</t>
+  </si>
+  <si>
+    <t>GTN_SPF_&gt;0_0_0</t>
+  </si>
+  <si>
+    <t>GTN_SPF</t>
+  </si>
+  <si>
+    <t>Combined gillnets-trammel nets, Small pelagic fish, see the code reg. mesh size and selectivity device</t>
+  </si>
+  <si>
+    <t>Added on request from RCG Med&amp;BS</t>
+  </si>
+  <si>
+    <t>Added to keep consistency in gear codes and mesh size ranges</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
@@ -7974,7 +8017,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8156,14 +8199,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8171,9 +8207,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Komma 2" xfId="2"/>
+    <cellStyle name="Komma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8450,27 +8486,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD1646"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD1657"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D278" sqref="D278"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="84.77734375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="28.33203125" style="10" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="110.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
-    <col min="11" max="11" width="9.109375"/>
-    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="1" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="87" customWidth="1"/>
+    <col min="9" max="12" width="13.21875" customWidth="1"/>
     <col min="13" max="30" width="9.109375"/>
   </cols>
   <sheetData>
@@ -13921,77 +13949,71 @@
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A272" s="96" t="s">
+      <c r="A272" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="B272" s="95" t="s">
+      <c r="B272" t="s">
         <v>82</v>
       </c>
-      <c r="C272" s="95"/>
-      <c r="D272" s="95"/>
-      <c r="H272" s="97" t="s">
+      <c r="H272" s="87" t="s">
         <v>1664</v>
       </c>
-      <c r="I272" s="95" t="s">
+      <c r="I272" t="s">
         <v>1890</v>
       </c>
-      <c r="J272" s="95" t="s">
+      <c r="J272" t="s">
         <v>1962</v>
       </c>
-      <c r="K272" s="95">
+      <c r="K272">
         <v>20221214</v>
       </c>
-      <c r="L272" s="95" t="s">
+      <c r="L272" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A273" s="96" t="s">
+      <c r="A273" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="B273" s="95" t="s">
+      <c r="B273" t="s">
         <v>2059</v>
       </c>
-      <c r="C273" s="95"/>
-      <c r="D273" s="95"/>
-      <c r="H273" s="97" t="s">
+      <c r="H273" s="87" t="s">
         <v>1664</v>
       </c>
-      <c r="I273" s="95" t="s">
+      <c r="I273" t="s">
         <v>1890</v>
       </c>
-      <c r="J273" s="95" t="s">
+      <c r="J273" t="s">
         <v>1962</v>
       </c>
-      <c r="K273" s="95">
+      <c r="K273">
         <v>20221214</v>
       </c>
-      <c r="L273" s="95" t="s">
+      <c r="L273" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A274" s="96" t="s">
+      <c r="A274" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="B274" s="95" t="s">
+      <c r="B274" t="s">
         <v>307</v>
       </c>
-      <c r="C274" s="95"/>
-      <c r="D274" s="95"/>
-      <c r="H274" s="97" t="s">
+      <c r="H274" s="87" t="s">
         <v>1664</v>
       </c>
-      <c r="I274" s="95" t="s">
+      <c r="I274" t="s">
         <v>1890</v>
       </c>
-      <c r="J274" s="95" t="s">
+      <c r="J274" t="s">
         <v>1962</v>
       </c>
-      <c r="K274" s="95">
+      <c r="K274">
         <v>20221214</v>
       </c>
-      <c r="L274" s="95" t="s">
+      <c r="L274" t="s">
         <v>2058</v>
       </c>
     </row>
@@ -14006,7 +14028,7 @@
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
-      <c r="G275" s="99"/>
+      <c r="G275" s="96"/>
       <c r="H275" s="89" t="s">
         <v>2106</v>
       </c>
@@ -14032,7 +14054,7 @@
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
-      <c r="G276" s="99"/>
+      <c r="G276" s="96"/>
       <c r="H276" s="89" t="s">
         <v>2106</v>
       </c>
@@ -14090,71 +14112,62 @@
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A280" s="96" t="s">
+      <c r="A280" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="B280" s="95" t="s">
+      <c r="B280" t="s">
         <v>402</v>
       </c>
-      <c r="C280" s="95"/>
-      <c r="D280" s="95"/>
-      <c r="H280" s="97" t="s">
+      <c r="H280" s="87" t="s">
         <v>1608</v>
       </c>
-      <c r="I280" s="95" t="s">
+      <c r="I280" t="s">
         <v>2061</v>
       </c>
-      <c r="J280" s="95"/>
-      <c r="K280" s="95">
+      <c r="K280">
         <v>20221214</v>
       </c>
-      <c r="L280" s="95" t="s">
+      <c r="L280" t="s">
         <v>2058</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A281" s="98" t="s">
+      <c r="A281" s="95" t="s">
         <v>1276</v>
       </c>
-      <c r="B281" s="95" t="s">
+      <c r="B281" t="s">
         <v>106</v>
       </c>
-      <c r="C281" s="95"/>
-      <c r="D281" s="95"/>
-      <c r="H281" s="97" t="s">
+      <c r="H281" s="87" t="s">
         <v>1608</v>
       </c>
-      <c r="I281" s="95" t="s">
+      <c r="I281" t="s">
         <v>2061</v>
       </c>
-      <c r="J281" s="95"/>
-      <c r="K281" s="95">
+      <c r="K281">
         <v>20221214</v>
       </c>
-      <c r="L281" s="95" t="s">
+      <c r="L281" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A282" s="98" t="s">
+      <c r="A282" s="95" t="s">
         <v>1276</v>
       </c>
-      <c r="B282" s="95" t="s">
+      <c r="B282" t="s">
         <v>2060</v>
       </c>
-      <c r="C282" s="95"/>
-      <c r="D282" s="95"/>
-      <c r="H282" s="97" t="s">
+      <c r="H282" s="87" t="s">
         <v>1608</v>
       </c>
-      <c r="I282" s="95" t="s">
+      <c r="I282" t="s">
         <v>2061</v>
       </c>
-      <c r="J282" s="95"/>
-      <c r="K282" s="95">
+      <c r="K282">
         <v>20221214</v>
       </c>
-      <c r="L282" s="95" t="s">
+      <c r="L282" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -14695,71 +14708,62 @@
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A318" s="96" t="s">
+      <c r="A318" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B318" s="96" t="s">
+      <c r="B318" s="5" t="s">
         <v>2068</v>
       </c>
-      <c r="C318" s="95"/>
-      <c r="D318" s="95"/>
-      <c r="H318" s="97" t="s">
+      <c r="H318" s="87" t="s">
         <v>1726</v>
       </c>
-      <c r="I318" s="95" t="s">
+      <c r="I318" t="s">
         <v>1844</v>
       </c>
-      <c r="J318" s="95"/>
-      <c r="K318" s="95">
+      <c r="K318">
         <v>20221214</v>
       </c>
-      <c r="L318" s="95" t="s">
+      <c r="L318" t="s">
         <v>2070</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A319" s="96" t="s">
+      <c r="A319" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B319" s="96" t="s">
+      <c r="B319" s="5" t="s">
         <v>2069</v>
       </c>
-      <c r="C319" s="95"/>
-      <c r="D319" s="95"/>
-      <c r="H319" s="97" t="s">
+      <c r="H319" s="87" t="s">
         <v>1726</v>
       </c>
-      <c r="I319" s="95" t="s">
+      <c r="I319" t="s">
         <v>1844</v>
       </c>
-      <c r="J319" s="95"/>
-      <c r="K319" s="95">
+      <c r="K319">
         <v>20221214</v>
       </c>
-      <c r="L319" s="95" t="s">
+      <c r="L319" t="s">
         <v>2070</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A320" s="96" t="s">
+      <c r="A320" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B320" s="96" t="s">
+      <c r="B320" s="5" t="s">
         <v>1725</v>
       </c>
-      <c r="C320" s="95"/>
-      <c r="D320" s="95"/>
-      <c r="H320" s="97" t="s">
+      <c r="H320" s="87" t="s">
         <v>1726</v>
       </c>
-      <c r="I320" s="95" t="s">
+      <c r="I320" t="s">
         <v>1844</v>
       </c>
-      <c r="J320" s="95"/>
-      <c r="K320" s="95">
+      <c r="K320">
         <v>20221214</v>
       </c>
-      <c r="L320" s="95" t="s">
+      <c r="L320" t="s">
         <v>2070</v>
       </c>
     </row>
@@ -15058,71 +15062,62 @@
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A342" s="96" t="s">
+      <c r="A342" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B342" s="96" t="s">
+      <c r="B342" s="5" t="s">
         <v>2071</v>
       </c>
-      <c r="C342" s="95"/>
-      <c r="D342" s="95"/>
-      <c r="H342" s="97" t="s">
+      <c r="H342" s="87" t="s">
         <v>1740</v>
       </c>
-      <c r="I342" s="95" t="s">
+      <c r="I342" t="s">
         <v>1845</v>
       </c>
-      <c r="J342" s="95"/>
-      <c r="K342" s="95">
+      <c r="K342">
         <v>20221214</v>
       </c>
-      <c r="L342" s="95" t="s">
+      <c r="L342" t="s">
         <v>2070</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A343" s="96" t="s">
+      <c r="A343" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B343" s="96" t="s">
+      <c r="B343" s="5" t="s">
         <v>2072</v>
       </c>
-      <c r="C343" s="95"/>
-      <c r="D343" s="95"/>
-      <c r="H343" s="97" t="s">
+      <c r="H343" s="87" t="s">
         <v>1740</v>
       </c>
-      <c r="I343" s="95" t="s">
+      <c r="I343" t="s">
         <v>1845</v>
       </c>
-      <c r="J343" s="95"/>
-      <c r="K343" s="95">
+      <c r="K343">
         <v>20221214</v>
       </c>
-      <c r="L343" s="95" t="s">
+      <c r="L343" t="s">
         <v>2070</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A344" s="96" t="s">
+      <c r="A344" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B344" s="96" t="s">
+      <c r="B344" s="5" t="s">
         <v>1739</v>
       </c>
-      <c r="C344" s="95"/>
-      <c r="D344" s="95"/>
-      <c r="H344" s="97" t="s">
+      <c r="H344" s="87" t="s">
         <v>1740</v>
       </c>
-      <c r="I344" s="95" t="s">
+      <c r="I344" t="s">
         <v>1845</v>
       </c>
-      <c r="J344" s="95"/>
-      <c r="K344" s="95">
+      <c r="K344">
         <v>20221214</v>
       </c>
-      <c r="L344" s="95" t="s">
+      <c r="L344" t="s">
         <v>2070</v>
       </c>
     </row>
@@ -15295,25 +15290,22 @@
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A357" s="96" t="s">
+      <c r="A357" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B357" s="96" t="s">
+      <c r="B357" s="5" t="s">
         <v>2074</v>
       </c>
-      <c r="C357" s="95"/>
-      <c r="D357" s="95"/>
-      <c r="H357" s="97" t="s">
+      <c r="H357" s="87" t="s">
         <v>2077</v>
       </c>
-      <c r="I357" s="95" t="s">
+      <c r="I357" t="s">
         <v>2102</v>
       </c>
-      <c r="J357" s="95"/>
-      <c r="K357" s="95">
+      <c r="K357">
         <v>20221214</v>
       </c>
-      <c r="L357" s="95" t="s">
+      <c r="L357" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -15341,48 +15333,42 @@
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A359" s="96" t="s">
+      <c r="A359" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B359" s="96" t="s">
+      <c r="B359" s="5" t="s">
         <v>2075</v>
       </c>
-      <c r="C359" s="95"/>
-      <c r="D359" s="95"/>
-      <c r="H359" s="97" t="s">
+      <c r="H359" s="87" t="s">
         <v>2077</v>
       </c>
-      <c r="I359" s="95" t="s">
+      <c r="I359" t="s">
         <v>2102</v>
       </c>
-      <c r="J359" s="95"/>
-      <c r="K359" s="95">
+      <c r="K359">
         <v>20221214</v>
       </c>
-      <c r="L359" s="95" t="s">
+      <c r="L359" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A360" s="96" t="s">
+      <c r="A360" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B360" s="96" t="s">
+      <c r="B360" s="5" t="s">
         <v>2056</v>
       </c>
-      <c r="C360" s="95"/>
-      <c r="D360" s="95"/>
-      <c r="H360" s="97" t="s">
+      <c r="H360" s="87" t="s">
         <v>2055</v>
       </c>
-      <c r="I360" s="95" t="s">
+      <c r="I360" t="s">
         <v>2103</v>
       </c>
-      <c r="J360" s="95"/>
-      <c r="K360" s="95">
+      <c r="K360">
         <v>20221214</v>
       </c>
-      <c r="L360" s="95" t="s">
+      <c r="L360" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -15410,48 +15396,42 @@
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A362" s="96" t="s">
+      <c r="A362" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B362" s="96" t="s">
+      <c r="B362" s="5" t="s">
         <v>2054</v>
       </c>
-      <c r="C362" s="95"/>
-      <c r="D362" s="95"/>
-      <c r="H362" s="97" t="s">
+      <c r="H362" s="87" t="s">
         <v>2055</v>
       </c>
-      <c r="I362" s="95" t="s">
+      <c r="I362" t="s">
         <v>2103</v>
       </c>
-      <c r="J362" s="95"/>
-      <c r="K362" s="95">
+      <c r="K362">
         <v>20221214</v>
       </c>
-      <c r="L362" s="95" t="s">
+      <c r="L362" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A363" s="96" t="s">
+      <c r="A363" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B363" s="96" t="s">
+      <c r="B363" s="5" t="s">
         <v>1729</v>
       </c>
-      <c r="C363" s="95"/>
-      <c r="D363" s="95"/>
-      <c r="H363" s="97" t="s">
+      <c r="H363" s="87" t="s">
         <v>1730</v>
       </c>
-      <c r="I363" s="95" t="s">
+      <c r="I363" t="s">
         <v>2104</v>
       </c>
-      <c r="J363" s="95"/>
-      <c r="K363" s="95">
+      <c r="K363">
         <v>20221214</v>
       </c>
-      <c r="L363" s="95" t="s">
+      <c r="L363" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -15479,25 +15459,22 @@
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A365" s="96" t="s">
+      <c r="A365" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B365" s="96" t="s">
+      <c r="B365" s="5" t="s">
         <v>2076</v>
       </c>
-      <c r="C365" s="95"/>
-      <c r="D365" s="95"/>
-      <c r="H365" s="97" t="s">
+      <c r="H365" s="87" t="s">
         <v>1730</v>
       </c>
-      <c r="I365" s="95" t="s">
+      <c r="I365" t="s">
         <v>2104</v>
       </c>
-      <c r="J365" s="95"/>
-      <c r="K365" s="95">
+      <c r="K365">
         <v>20221214</v>
       </c>
-      <c r="L365" s="95" t="s">
+      <c r="L365" t="s">
         <v>2086</v>
       </c>
     </row>
@@ -15558,25 +15535,22 @@
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A370" s="96" t="s">
+      <c r="A370" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B370" s="96" t="s">
+      <c r="B370" s="5" t="s">
         <v>1484</v>
       </c>
-      <c r="C370" s="95"/>
-      <c r="D370" s="95"/>
-      <c r="H370" s="97" t="s">
+      <c r="H370" s="87" t="s">
         <v>1711</v>
       </c>
-      <c r="I370" s="95" t="s">
+      <c r="I370" t="s">
         <v>1934</v>
       </c>
-      <c r="J370" s="95"/>
-      <c r="K370" s="95">
+      <c r="K370">
         <v>20221214</v>
       </c>
-      <c r="L370" s="95" t="s">
+      <c r="L370" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -15637,25 +15611,22 @@
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A375" s="96" t="s">
+      <c r="A375" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B375" s="96" t="s">
+      <c r="B375" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C375" s="95"/>
-      <c r="D375" s="95"/>
-      <c r="H375" s="97" t="s">
+      <c r="H375" s="87" t="s">
         <v>1627</v>
       </c>
-      <c r="I375" s="95" t="s">
+      <c r="I375" t="s">
         <v>1935</v>
       </c>
-      <c r="J375" s="95"/>
-      <c r="K375" s="95">
+      <c r="K375">
         <v>20221214</v>
       </c>
-      <c r="L375" s="95" t="s">
+      <c r="L375" t="s">
         <v>2073</v>
       </c>
     </row>
@@ -15716,48 +15687,42 @@
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A380" s="96" t="s">
+      <c r="A380" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B380" s="96" t="s">
+      <c r="B380" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="C380" s="95"/>
-      <c r="D380" s="95"/>
-      <c r="H380" s="97" t="s">
+      <c r="H380" s="87" t="s">
         <v>1630</v>
       </c>
-      <c r="I380" s="95" t="s">
+      <c r="I380" t="s">
         <v>1936</v>
       </c>
-      <c r="J380" s="95"/>
-      <c r="K380" s="95">
+      <c r="K380">
         <v>20221214</v>
       </c>
-      <c r="L380" s="95" t="s">
+      <c r="L380" t="s">
         <v>2070</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A381" s="96" t="s">
+      <c r="A381" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B381" s="96" t="s">
+      <c r="B381" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C381" s="95"/>
-      <c r="D381" s="95"/>
-      <c r="H381" s="97" t="s">
+      <c r="H381" s="87" t="s">
         <v>1587</v>
       </c>
-      <c r="I381" s="95" t="s">
+      <c r="I381" t="s">
         <v>2078</v>
       </c>
-      <c r="J381" s="95"/>
-      <c r="K381" s="95">
+      <c r="K381">
         <v>20221214</v>
       </c>
-      <c r="L381" s="95" t="s">
+      <c r="L381" t="s">
         <v>2070</v>
       </c>
     </row>
@@ -15869,48 +15834,42 @@
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A389" s="96" t="s">
+      <c r="A389" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B389" s="96" t="s">
+      <c r="B389" s="5" t="s">
         <v>1414</v>
       </c>
-      <c r="C389" s="95"/>
-      <c r="D389" s="95"/>
-      <c r="H389" s="97" t="s">
+      <c r="H389" s="87" t="s">
         <v>1678</v>
       </c>
-      <c r="I389" s="95" t="s">
+      <c r="I389" t="s">
         <v>2081</v>
       </c>
-      <c r="J389" s="95"/>
-      <c r="K389" s="95">
+      <c r="K389">
         <v>20221214</v>
       </c>
-      <c r="L389" s="95" t="s">
+      <c r="L389" t="s">
         <v>2073</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A390" s="96" t="s">
+      <c r="A390" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B390" s="96" t="s">
+      <c r="B390" s="5" t="s">
         <v>2079</v>
       </c>
-      <c r="C390" s="95"/>
-      <c r="D390" s="95"/>
-      <c r="H390" s="97" t="s">
+      <c r="H390" s="87" t="s">
         <v>2080</v>
       </c>
-      <c r="I390" s="95" t="s">
+      <c r="I390" t="s">
         <v>2082</v>
       </c>
-      <c r="J390" s="95"/>
-      <c r="K390" s="95">
+      <c r="K390">
         <v>20221214</v>
       </c>
-      <c r="L390" s="95" t="s">
+      <c r="L390" t="s">
         <v>2070</v>
       </c>
     </row>
@@ -16838,25 +16797,22 @@
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A452" s="96" t="s">
+      <c r="A452" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="B452" s="96" t="s">
+      <c r="B452" s="5" t="s">
         <v>2083</v>
       </c>
-      <c r="C452" s="95"/>
-      <c r="D452" s="95"/>
-      <c r="H452" s="97" t="s">
+      <c r="H452" s="87" t="s">
         <v>2084</v>
       </c>
-      <c r="I452" s="95" t="s">
+      <c r="I452" t="s">
         <v>2085</v>
       </c>
-      <c r="J452" s="95"/>
-      <c r="K452" s="95">
+      <c r="K452">
         <v>20221214</v>
       </c>
-      <c r="L452" s="95" t="s">
+      <c r="L452" t="s">
         <v>2086</v>
       </c>
     </row>
@@ -18973,7 +18929,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="561" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>1152</v>
       </c>
@@ -18988,7 +18944,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="562" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19003,7 +18959,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="563" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19018,7 +18974,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="564" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19033,7 +18989,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="565" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19048,7 +19004,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="566" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19063,7 +19019,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="567" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19078,7 +19034,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="568" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19093,7 +19049,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="569" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19108,7 +19064,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="570" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19123,7 +19079,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="571" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>1152</v>
       </c>
@@ -19138,7 +19094,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="572" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A572" s="90" t="s">
         <v>1152</v>
       </c>
@@ -19161,10 +19117,8 @@
       <c r="L572" s="8" t="s">
         <v>2097</v>
       </c>
-      <c r="M572" s="95"/>
-      <c r="N572" s="95"/>
-    </row>
-    <row r="573" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A573" s="90" t="s">
         <v>1152</v>
       </c>
@@ -19187,10 +19141,8 @@
       <c r="L573" s="8" t="s">
         <v>2097</v>
       </c>
-      <c r="M573" s="95"/>
-      <c r="N573" s="95"/>
-    </row>
-    <row r="574" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A574" s="90" t="s">
         <v>1152</v>
       </c>
@@ -19213,10 +19165,8 @@
       <c r="L574" s="8" t="s">
         <v>2097</v>
       </c>
-      <c r="M574" s="95"/>
-      <c r="N574" s="95"/>
-    </row>
-    <row r="575" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A575" s="90" t="s">
         <v>1152</v>
       </c>
@@ -19239,10 +19189,8 @@
       <c r="L575" s="8" t="s">
         <v>2097</v>
       </c>
-      <c r="M575" s="95"/>
-      <c r="N575" s="95"/>
-    </row>
-    <row r="576" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>1152</v>
       </c>
@@ -41095,7 +41043,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1633" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1633" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1633" t="s">
         <v>2</v>
       </c>
@@ -41121,7 +41069,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1634" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1634" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1634" t="s">
         <v>2</v>
       </c>
@@ -41147,7 +41095,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1635" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1635" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1635" t="s">
         <v>2</v>
       </c>
@@ -41173,7 +41121,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1636" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1636" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1636" t="s">
         <v>2</v>
       </c>
@@ -41199,7 +41147,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1637" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1637" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1637" t="s">
         <v>2</v>
       </c>
@@ -41225,7 +41173,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1638" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1638" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1638" t="s">
         <v>2</v>
       </c>
@@ -41251,7 +41199,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1639" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1639" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1639" t="s">
         <v>2</v>
       </c>
@@ -41277,7 +41225,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1640" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1640" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1640" t="s">
         <v>2</v>
       </c>
@@ -41294,7 +41242,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1641" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1641" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1641" t="s">
         <v>2</v>
       </c>
@@ -41311,7 +41259,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1642" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1642" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1642" t="s">
         <v>2</v>
       </c>
@@ -41337,7 +41285,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1643" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1643" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1643" t="s">
         <v>2</v>
       </c>
@@ -41354,7 +41302,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1644" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1644" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1644" t="s">
         <v>2</v>
       </c>
@@ -41380,7 +41328,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1645" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1645" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1645" t="s">
         <v>2</v>
       </c>
@@ -41397,7 +41345,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="1646" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1646" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1646" t="s">
         <v>2</v>
       </c>
@@ -41423,9 +41371,300 @@
         <v>1698</v>
       </c>
     </row>
+    <row r="1647" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1647" s="8" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1647" s="90" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1647" s="8"/>
+      <c r="D1647" s="8"/>
+      <c r="E1647" s="8"/>
+      <c r="F1647" s="8"/>
+      <c r="G1647" s="96"/>
+      <c r="H1647" s="89" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I1647" s="8" t="s">
+        <v>1906</v>
+      </c>
+      <c r="J1647" s="8"/>
+      <c r="K1647" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1647" s="8" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1648" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1648" s="90" t="s">
+        <v>617</v>
+      </c>
+      <c r="C1648" s="8"/>
+      <c r="D1648" s="8"/>
+      <c r="E1648" s="8"/>
+      <c r="F1648" s="8"/>
+      <c r="G1648" s="96"/>
+      <c r="H1648" s="89" t="s">
+        <v>1567</v>
+      </c>
+      <c r="I1648" s="8" t="s">
+        <v>1923</v>
+      </c>
+      <c r="J1648" s="8"/>
+      <c r="K1648" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1648" s="8" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1649" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1649" s="90" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C1649" s="8"/>
+      <c r="D1649" s="8"/>
+      <c r="E1649" s="8"/>
+      <c r="F1649" s="8"/>
+      <c r="G1649" s="96"/>
+      <c r="H1649" s="89" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I1649" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J1649" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K1649" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1649" s="8" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1650" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1650" s="90" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C1650" s="8"/>
+      <c r="D1650" s="8"/>
+      <c r="E1650" s="8"/>
+      <c r="F1650" s="8"/>
+      <c r="G1650" s="96"/>
+      <c r="H1650" s="89" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I1650" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J1650" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K1650" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1650" s="8" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1651" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1651" s="90" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1651" s="8"/>
+      <c r="D1651" s="8"/>
+      <c r="E1651" s="8"/>
+      <c r="F1651" s="8"/>
+      <c r="G1651" s="96"/>
+      <c r="H1651" s="89" t="s">
+        <v>1666</v>
+      </c>
+      <c r="I1651" s="8" t="s">
+        <v>1910</v>
+      </c>
+      <c r="J1651" s="8" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K1651" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1651" s="8" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1652" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1652" s="90" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C1652" s="8"/>
+      <c r="D1652" s="8"/>
+      <c r="E1652" s="8"/>
+      <c r="F1652" s="8"/>
+      <c r="G1652" s="96"/>
+      <c r="H1652" s="89" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I1652" s="8" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1652" s="8"/>
+      <c r="K1652" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1652" s="8" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1653" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1653" s="90" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C1653" s="8"/>
+      <c r="D1653" s="8"/>
+      <c r="E1653" s="8"/>
+      <c r="F1653" s="8"/>
+      <c r="G1653" s="96"/>
+      <c r="H1653" s="89" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I1653" s="8" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1653" s="8"/>
+      <c r="K1653" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1653" s="8" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1654" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1654" s="90" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C1654" s="8"/>
+      <c r="D1654" s="8"/>
+      <c r="E1654" s="8"/>
+      <c r="F1654" s="8"/>
+      <c r="G1654" s="96"/>
+      <c r="H1654" s="89" t="s">
+        <v>2115</v>
+      </c>
+      <c r="I1654" s="8" t="s">
+        <v>2116</v>
+      </c>
+      <c r="J1654" s="8"/>
+      <c r="K1654" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1654" s="8" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1655" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1655" s="90" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C1655" s="8"/>
+      <c r="D1655" s="8"/>
+      <c r="E1655" s="8"/>
+      <c r="F1655" s="8"/>
+      <c r="G1655" s="96"/>
+      <c r="H1655" s="89" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I1655" s="8" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1655" s="8"/>
+      <c r="K1655" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1655" s="8" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1656" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1656" s="90" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C1656" s="8"/>
+      <c r="D1656" s="8"/>
+      <c r="E1656" s="8"/>
+      <c r="F1656" s="8"/>
+      <c r="G1656" s="96"/>
+      <c r="H1656" s="89" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I1656" s="8" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1656" s="8"/>
+      <c r="K1656" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1656" s="8" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1657" s="90" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1657" s="90" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C1657" s="8"/>
+      <c r="D1657" s="8"/>
+      <c r="E1657" s="8"/>
+      <c r="F1657" s="8"/>
+      <c r="G1657" s="96"/>
+      <c r="H1657" s="89" t="s">
+        <v>2120</v>
+      </c>
+      <c r="I1657" s="8" t="s">
+        <v>2121</v>
+      </c>
+      <c r="J1657" s="8"/>
+      <c r="K1657" s="8">
+        <v>20250110</v>
+      </c>
+      <c r="L1657" s="8" t="s">
+        <v>2122</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L1646"/>
-  <sortState ref="A2:G1577">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1577">
     <sortCondition ref="A2:A1577"/>
     <sortCondition ref="B2:B1577"/>
   </sortState>
